--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_SwapQuotes.xlsx
@@ -27,7 +27,7 @@
     <definedName name="RateTickValue">'General Settings'!$D$16</definedName>
     <definedName name="SerializationPath">'General Settings'!$D$8</definedName>
     <definedName name="Serialize">'General Settings'!$D$7</definedName>
-    <definedName name="SwapMainSetConventions">Swap3M!$J$3:$L$7</definedName>
+    <definedName name="SwapMainSetConventions">Swap3M!$J$3:$L$10</definedName>
     <definedName name="SwapSecondarySetConventions">Swap6M!$J$3:$L$7</definedName>
     <definedName name="Trigger">'General Settings'!$D$4</definedName>
   </definedNames>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="111">
   <si>
     <t>Currency</t>
   </si>
@@ -203,9 +203,6 @@
     <t>60Y</t>
   </si>
   <si>
-    <t>X1S</t>
-  </si>
-  <si>
     <t>SW</t>
   </si>
   <si>
@@ -357,6 +354,21 @@
   </si>
   <si>
     <t>HKD</t>
+  </si>
+  <si>
+    <t>AM1H</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>QM</t>
+  </si>
+  <si>
+    <t>3H</t>
   </si>
 </sst>
 </file>
@@ -1360,7 +1372,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1384,7 +1396,7 @@
     <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="8"/>
       <c r="B2" s="97" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="98"/>
       <c r="D2" s="98"/>
@@ -1447,7 +1459,7 @@
       </c>
       <c r="D8" s="16" t="str">
         <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>X:\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1472,7 +1484,7 @@
     <row r="11" spans="1:5" ht="12" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B12" s="97" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="98"/>
       <c r="D12" s="98"/>
@@ -1490,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -1589,7 +1601,7 @@
       </c>
       <c r="F2" s="80">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F93),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G2" s="81" t="str">
         <f>_xll.ohRangeRetrieveError(F2)</f>
@@ -1601,10 +1613,10 @@
       <c r="A3" s="76"/>
       <c r="B3" s="83"/>
       <c r="C3" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="95" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="84" t="str">
         <f t="shared" ref="E3:E56" si="0">Currency&amp;$B3&amp;$C3&amp;$D3&amp;QuoteSuffix</f>
@@ -1624,10 +1636,10 @@
       <c r="A4" s="76"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D4" s="95" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1647,10 +1659,10 @@
       <c r="A5" s="76"/>
       <c r="B5" s="83"/>
       <c r="C5" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="95" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1670,10 +1682,10 @@
       <c r="A6" s="76"/>
       <c r="B6" s="83"/>
       <c r="C6" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D6" s="95" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1693,10 +1705,10 @@
       <c r="A7" s="76"/>
       <c r="B7" s="83"/>
       <c r="C7" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D7" s="95" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E7" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1716,10 +1728,10 @@
       <c r="A8" s="76"/>
       <c r="B8" s="83"/>
       <c r="C8" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="95" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E8" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1739,10 +1751,10 @@
       <c r="A9" s="76"/>
       <c r="B9" s="83"/>
       <c r="C9" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D9" s="95" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E9" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1762,10 +1774,10 @@
       <c r="A10" s="76"/>
       <c r="B10" s="83"/>
       <c r="C10" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="95" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E10" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1785,10 +1797,10 @@
       <c r="A11" s="76"/>
       <c r="B11" s="83"/>
       <c r="C11" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D11" s="95" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E11" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1808,10 +1820,10 @@
       <c r="A12" s="76"/>
       <c r="B12" s="83"/>
       <c r="C12" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D12" s="95" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E12" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1831,10 +1843,10 @@
       <c r="A13" s="76"/>
       <c r="B13" s="83"/>
       <c r="C13" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="95" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E13" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1854,10 +1866,10 @@
       <c r="A14" s="76"/>
       <c r="B14" s="83"/>
       <c r="C14" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="95" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1877,10 +1889,10 @@
       <c r="A15" s="76"/>
       <c r="B15" s="83"/>
       <c r="C15" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D15" s="95" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E15" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1900,10 +1912,10 @@
       <c r="A16" s="76"/>
       <c r="B16" s="83"/>
       <c r="C16" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D16" s="95" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1923,7 +1935,7 @@
       <c r="A17" s="76"/>
       <c r="B17" s="83"/>
       <c r="C17" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="95" t="s">
         <v>18</v>
@@ -1946,10 +1958,10 @@
       <c r="A18" s="76"/>
       <c r="B18" s="83"/>
       <c r="C18" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D18" s="95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E18" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1969,10 +1981,10 @@
       <c r="A19" s="76"/>
       <c r="B19" s="83"/>
       <c r="C19" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" s="95" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E19" s="84" t="str">
         <f t="shared" si="0"/>
@@ -1992,7 +2004,7 @@
       <c r="A20" s="76"/>
       <c r="B20" s="83"/>
       <c r="C20" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="95" t="s">
         <v>19</v>
@@ -2015,10 +2027,10 @@
       <c r="A21" s="76"/>
       <c r="B21" s="83"/>
       <c r="C21" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D21" s="95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2038,10 +2050,10 @@
       <c r="A22" s="76"/>
       <c r="B22" s="83"/>
       <c r="C22" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D22" s="95" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E22" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2061,7 +2073,7 @@
       <c r="A23" s="76"/>
       <c r="B23" s="83"/>
       <c r="C23" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="95" t="s">
         <v>20</v>
@@ -2084,10 +2096,10 @@
       <c r="A24" s="76"/>
       <c r="B24" s="83"/>
       <c r="C24" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E24" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2107,10 +2119,10 @@
       <c r="A25" s="76"/>
       <c r="B25" s="83"/>
       <c r="C25" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D25" s="95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2130,7 +2142,7 @@
       <c r="A26" s="76"/>
       <c r="B26" s="83"/>
       <c r="C26" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="95" t="s">
         <v>21</v>
@@ -2153,10 +2165,10 @@
       <c r="A27" s="76"/>
       <c r="B27" s="83"/>
       <c r="C27" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D27" s="95" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E27" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2176,10 +2188,10 @@
       <c r="A28" s="76"/>
       <c r="B28" s="83"/>
       <c r="C28" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="95" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2199,7 +2211,7 @@
       <c r="A29" s="76"/>
       <c r="B29" s="83"/>
       <c r="C29" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D29" s="95" t="s">
         <v>22</v>
@@ -2222,10 +2234,10 @@
       <c r="A30" s="76"/>
       <c r="B30" s="83"/>
       <c r="C30" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D30" s="95" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E30" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2245,10 +2257,10 @@
       <c r="A31" s="76"/>
       <c r="B31" s="83"/>
       <c r="C31" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D31" s="95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2268,10 +2280,10 @@
       <c r="A32" s="76"/>
       <c r="B32" s="83"/>
       <c r="C32" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D32" s="95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2291,7 +2303,7 @@
       <c r="A33" s="76"/>
       <c r="B33" s="83"/>
       <c r="C33" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D33" s="95" t="s">
         <v>23</v>
@@ -2314,10 +2326,10 @@
       <c r="A34" s="76"/>
       <c r="B34" s="83"/>
       <c r="C34" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D34" s="95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E34" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2337,10 +2349,10 @@
       <c r="A35" s="76"/>
       <c r="B35" s="83"/>
       <c r="C35" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D35" s="95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E35" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2360,10 +2372,10 @@
       <c r="A36" s="76"/>
       <c r="B36" s="83"/>
       <c r="C36" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D36" s="95" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E36" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2383,7 +2395,7 @@
       <c r="A37" s="76"/>
       <c r="B37" s="83"/>
       <c r="C37" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D37" s="95" t="s">
         <v>24</v>
@@ -2406,10 +2418,10 @@
       <c r="A38" s="76"/>
       <c r="B38" s="83"/>
       <c r="C38" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D38" s="95" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E38" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2429,10 +2441,10 @@
       <c r="A39" s="76"/>
       <c r="B39" s="83"/>
       <c r="C39" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D39" s="95" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E39" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2452,10 +2464,10 @@
       <c r="A40" s="76"/>
       <c r="B40" s="83"/>
       <c r="C40" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D40" s="95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E40" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2475,7 +2487,7 @@
       <c r="A41" s="76"/>
       <c r="B41" s="83"/>
       <c r="C41" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D41" s="95" t="s">
         <v>25</v>
@@ -2498,7 +2510,7 @@
       <c r="A42" s="76"/>
       <c r="B42" s="83"/>
       <c r="C42" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D42" s="95" t="s">
         <v>26</v>
@@ -2521,7 +2533,7 @@
       <c r="A43" s="76"/>
       <c r="B43" s="83"/>
       <c r="C43" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D43" s="95" t="s">
         <v>27</v>
@@ -2544,7 +2556,7 @@
       <c r="A44" s="76"/>
       <c r="B44" s="83"/>
       <c r="C44" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D44" s="95" t="s">
         <v>28</v>
@@ -2567,7 +2579,7 @@
       <c r="A45" s="76"/>
       <c r="B45" s="83"/>
       <c r="C45" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D45" s="95" t="s">
         <v>29</v>
@@ -2590,7 +2602,7 @@
       <c r="A46" s="76"/>
       <c r="B46" s="83"/>
       <c r="C46" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D46" s="95" t="s">
         <v>30</v>
@@ -2613,7 +2625,7 @@
       <c r="A47" s="76"/>
       <c r="B47" s="83"/>
       <c r="C47" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D47" s="95" t="s">
         <v>32</v>
@@ -2636,7 +2648,7 @@
       <c r="A48" s="76"/>
       <c r="B48" s="83"/>
       <c r="C48" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D48" s="95" t="s">
         <v>35</v>
@@ -2659,7 +2671,7 @@
       <c r="A49" s="76"/>
       <c r="B49" s="83"/>
       <c r="C49" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D49" s="95" t="s">
         <v>40</v>
@@ -2682,7 +2694,7 @@
       <c r="A50" s="76"/>
       <c r="B50" s="83"/>
       <c r="C50" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D50" s="95" t="s">
         <v>45</v>
@@ -2705,7 +2717,7 @@
       <c r="A51" s="76"/>
       <c r="B51" s="83"/>
       <c r="C51" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D51" s="95" t="s">
         <v>47</v>
@@ -2728,7 +2740,7 @@
       <c r="A52" s="76"/>
       <c r="B52" s="83"/>
       <c r="C52" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D52" s="95" t="s">
         <v>50</v>
@@ -2751,7 +2763,7 @@
       <c r="A53" s="76"/>
       <c r="B53" s="83"/>
       <c r="C53" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="95" t="s">
         <v>51</v>
@@ -2774,7 +2786,7 @@
       <c r="A54" s="76"/>
       <c r="B54" s="83"/>
       <c r="C54" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D54" s="95" t="s">
         <v>52</v>
@@ -2797,10 +2809,10 @@
       <c r="A55" s="76"/>
       <c r="B55" s="83"/>
       <c r="C55" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D55" s="95" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E55" s="84" t="str">
         <f t="shared" si="0"/>
@@ -2820,7 +2832,7 @@
       <c r="A56" s="76"/>
       <c r="B56" s="83"/>
       <c r="C56" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D56" s="95" t="s">
         <v>53</v>
@@ -2852,22 +2864,22 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="76"/>
       <c r="B58" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C58" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D58" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlSettingsEvaluationDate(Trigger)-365)</f>
-        <v>AUG12</v>
+        <v>NOV12</v>
       </c>
       <c r="E58" s="84" t="str">
         <f t="shared" ref="E58:E93" si="1">Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix</f>
-        <v>HKDFEDOISAUG12_Quote</v>
+        <v>HKDFEDOISNOV12_Quote</v>
       </c>
       <c r="F58" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISAUG12_Quote#0002</v>
+        <v>HKDFEDOISNOV12_Quote#0002</v>
       </c>
       <c r="G58" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -2878,22 +2890,22 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="76"/>
       <c r="B59" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C59" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D59" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D58))</f>
-        <v>SEP12</v>
+        <v>DEC12</v>
       </c>
       <c r="E59" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISSEP12_Quote</v>
+        <v>HKDFEDOISDEC12_Quote</v>
       </c>
       <c r="F59" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B59&amp;$C59&amp;$D59&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISSEP12_Quote#0002</v>
+        <v>HKDFEDOISDEC12_Quote#0002</v>
       </c>
       <c r="G59" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -2904,22 +2916,22 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="76"/>
       <c r="B60" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D59))</f>
-        <v>OCT12</v>
+        <v>JAN13</v>
       </c>
       <c r="E60" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISOCT12_Quote</v>
+        <v>HKDFEDOISJAN13_Quote</v>
       </c>
       <c r="F60" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B60&amp;$C60&amp;$D60&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISOCT12_Quote#0002</v>
+        <v>HKDFEDOISJAN13_Quote#0002</v>
       </c>
       <c r="G60" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -2930,22 +2942,22 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="76"/>
       <c r="B61" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C61" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D61" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D60))</f>
-        <v>NOV12</v>
+        <v>FEB13</v>
       </c>
       <c r="E61" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISNOV12_Quote</v>
+        <v>HKDFEDOISFEB13_Quote</v>
       </c>
       <c r="F61" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B61&amp;$C61&amp;$D61&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISNOV12_Quote#0002</v>
+        <v>HKDFEDOISFEB13_Quote#0002</v>
       </c>
       <c r="G61" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -2956,22 +2968,22 @@
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="76"/>
       <c r="B62" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D61))</f>
-        <v>DEC12</v>
+        <v>MAR13</v>
       </c>
       <c r="E62" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISDEC12_Quote</v>
+        <v>HKDFEDOISMAR13_Quote</v>
       </c>
       <c r="F62" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B62&amp;$C62&amp;$D62&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISDEC12_Quote#0002</v>
+        <v>HKDFEDOISMAR13_Quote#0002</v>
       </c>
       <c r="G62" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -2982,22 +2994,22 @@
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="76"/>
       <c r="B63" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D63" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D62))</f>
-        <v>JAN13</v>
+        <v>APR13</v>
       </c>
       <c r="E63" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISJAN13_Quote</v>
+        <v>HKDFEDOISAPR13_Quote</v>
       </c>
       <c r="F63" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B63&amp;$C63&amp;$D63&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJAN13_Quote#0002</v>
+        <v>HKDFEDOISAPR13_Quote#0002</v>
       </c>
       <c r="G63" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -3008,22 +3020,22 @@
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="76"/>
       <c r="B64" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D64" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D63))</f>
-        <v>FEB13</v>
+        <v>MAY13</v>
       </c>
       <c r="E64" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISFEB13_Quote</v>
+        <v>HKDFEDOISMAY13_Quote</v>
       </c>
       <c r="F64" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B64&amp;$C64&amp;$D64&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISFEB13_Quote#0002</v>
+        <v>HKDFEDOISMAY13_Quote#0002</v>
       </c>
       <c r="G64" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -3034,22 +3046,22 @@
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="76"/>
       <c r="B65" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C65" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D65" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D64))</f>
-        <v>MAR13</v>
+        <v>JUN13</v>
       </c>
       <c r="E65" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISMAR13_Quote</v>
+        <v>HKDFEDOISJUN13_Quote</v>
       </c>
       <c r="F65" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B65&amp;$C65&amp;$D65&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISMAR13_Quote#0002</v>
+        <v>HKDFEDOISJUN13_Quote#0002</v>
       </c>
       <c r="G65" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -3060,22 +3072,22 @@
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="76"/>
       <c r="B66" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C66" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D66" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D65))</f>
-        <v>APR13</v>
+        <v>JUL13</v>
       </c>
       <c r="E66" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISAPR13_Quote</v>
+        <v>HKDFEDOISJUL13_Quote</v>
       </c>
       <c r="F66" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B66&amp;$C66&amp;$D66&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISAPR13_Quote#0002</v>
+        <v>HKDFEDOISJUL13_Quote#0002</v>
       </c>
       <c r="G66" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -3086,22 +3098,22 @@
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="76"/>
       <c r="B67" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C67" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D67" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D66))</f>
-        <v>MAY13</v>
+        <v>AUG13</v>
       </c>
       <c r="E67" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISMAY13_Quote</v>
+        <v>HKDFEDOISAUG13_Quote</v>
       </c>
       <c r="F67" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B67&amp;$C67&amp;$D67&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISMAY13_Quote#0002</v>
+        <v>HKDFEDOISAUG13_Quote#0002</v>
       </c>
       <c r="G67" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -3112,22 +3124,22 @@
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="76"/>
       <c r="B68" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D67))</f>
-        <v>JUN13</v>
+        <v>SEP13</v>
       </c>
       <c r="E68" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISJUN13_Quote</v>
+        <v>HKDFEDOISSEP13_Quote</v>
       </c>
       <c r="F68" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B68&amp;$C68&amp;$D68&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJUN13_Quote#0002</v>
+        <v>HKDFEDOISSEP13_Quote#0002</v>
       </c>
       <c r="G68" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -3138,22 +3150,22 @@
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="76"/>
       <c r="B69" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C69" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D69" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D68))</f>
-        <v>JUL13</v>
+        <v>OCT13</v>
       </c>
       <c r="E69" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISJUL13_Quote</v>
+        <v>HKDFEDOISOCT13_Quote</v>
       </c>
       <c r="F69" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B69&amp;$C69&amp;$D69&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJUL13_Quote#0002</v>
+        <v>HKDFEDOISOCT13_Quote#0002</v>
       </c>
       <c r="G69" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -3164,22 +3176,22 @@
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="76"/>
       <c r="B70" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C70" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D70" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D69))</f>
-        <v>AUG13</v>
+        <v>NOV13</v>
       </c>
       <c r="E70" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISAUG13_Quote</v>
+        <v>HKDFEDOISNOV13_Quote</v>
       </c>
       <c r="F70" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B70&amp;$C70&amp;$D70&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISAUG13_Quote#0002</v>
+        <v>HKDFEDOISNOV13_Quote#0002</v>
       </c>
       <c r="G70" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -3190,22 +3202,22 @@
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="76"/>
       <c r="B71" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C71" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D71" s="96" t="str">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D70))</f>
-        <v>SEP13</v>
+        <v>DEC13</v>
       </c>
       <c r="E71" s="84" t="str">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISSEP13_Quote</v>
+        <v>HKDFEDOISDEC13_Quote</v>
       </c>
       <c r="F71" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B71&amp;$C71&amp;$D71&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISSEP13_Quote#0002</v>
+        <v>HKDFEDOISDEC13_Quote#0002</v>
       </c>
       <c r="G71" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -3216,25 +3228,25 @@
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="76"/>
       <c r="B72" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C72" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="D72" s="96" t="str">
+        <v>85</v>
+      </c>
+      <c r="D72" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D71))</f>
-        <v>OCT13</v>
-      </c>
-      <c r="E72" s="84" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="E72" s="84" t="e">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISOCT13_Quote</v>
-      </c>
-      <c r="F72" s="84" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="F72" s="84" t="e">
         <f>_xll.qlSimpleQuote(Currency&amp;$B72&amp;$C72&amp;$D72&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISOCT13_Quote#0002</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G72" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(F72)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F72)</f>
         <v/>
       </c>
       <c r="H72" s="82"/>
@@ -3242,25 +3254,25 @@
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="76"/>
       <c r="B73" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C73" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="D73" s="96" t="str">
+        <v>85</v>
+      </c>
+      <c r="D73" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D72))</f>
-        <v>NOV13</v>
-      </c>
-      <c r="E73" s="84" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="E73" s="84" t="e">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISNOV13_Quote</v>
-      </c>
-      <c r="F73" s="84" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="F73" s="84" t="e">
         <f>_xll.qlSimpleQuote(Currency&amp;$B73&amp;$C73&amp;$D73&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISNOV13_Quote#0002</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G73" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(F73)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F73)</f>
         <v/>
       </c>
       <c r="H73" s="82"/>
@@ -3268,25 +3280,25 @@
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="76"/>
       <c r="B74" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="83" t="s">
-        <v>86</v>
-      </c>
-      <c r="D74" s="96" t="str">
+        <v>85</v>
+      </c>
+      <c r="D74" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D73))</f>
-        <v>DEC13</v>
-      </c>
-      <c r="E74" s="84" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="E74" s="84" t="e">
         <f t="shared" si="1"/>
-        <v>HKDFEDOISDEC13_Quote</v>
-      </c>
-      <c r="F74" s="84" t="str">
+        <v>#NUM!</v>
+      </c>
+      <c r="F74" s="84" t="e">
         <f>_xll.qlSimpleQuote(Currency&amp;$B74&amp;$C74&amp;$D74&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISDEC13_Quote#0002</v>
+        <v>#VALUE!</v>
       </c>
       <c r="G74" s="85" t="str">
-        <f>_xll.ohRangeRetrieveError(F74)</f>
+        <f ca="1">_xll.ohRangeRetrieveError(F74)</f>
         <v/>
       </c>
       <c r="H74" s="82"/>
@@ -3294,10 +3306,10 @@
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="76"/>
       <c r="B75" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C75" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D75" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D74))</f>
@@ -3320,10 +3332,10 @@
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="76"/>
       <c r="B76" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D76" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D75))</f>
@@ -3346,10 +3358,10 @@
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="76"/>
       <c r="B77" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C77" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D77" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D76))</f>
@@ -3372,10 +3384,10 @@
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="76"/>
       <c r="B78" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C78" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D78" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D77))</f>
@@ -3398,10 +3410,10 @@
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="76"/>
       <c r="B79" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C79" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D78))</f>
@@ -3424,10 +3436,10 @@
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="76"/>
       <c r="B80" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C80" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D80" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D79))</f>
@@ -3450,10 +3462,10 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="76"/>
       <c r="B81" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C81" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D81" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D80))</f>
@@ -3476,10 +3488,10 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="76"/>
       <c r="B82" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D82" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D81))</f>
@@ -3502,10 +3514,10 @@
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="76"/>
       <c r="B83" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C83" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D83" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D82))</f>
@@ -3528,10 +3540,10 @@
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="76"/>
       <c r="B84" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C84" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D84" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D83))</f>
@@ -3554,10 +3566,10 @@
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="76"/>
       <c r="B85" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C85" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D85" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D84))</f>
@@ -3580,10 +3592,10 @@
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="76"/>
       <c r="B86" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C86" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D86" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D85))</f>
@@ -3606,10 +3618,10 @@
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="76"/>
       <c r="B87" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C87" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D87" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D86))</f>
@@ -3632,10 +3644,10 @@
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="76"/>
       <c r="B88" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C88" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D88" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D87))</f>
@@ -3658,10 +3670,10 @@
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="76"/>
       <c r="B89" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D89" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D88))</f>
@@ -3684,10 +3696,10 @@
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="76"/>
       <c r="B90" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C90" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D90" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D89))</f>
@@ -3710,10 +3722,10 @@
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="76"/>
       <c r="B91" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C91" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D91" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D90))</f>
@@ -3736,10 +3748,10 @@
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="76"/>
       <c r="B92" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C92" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D92" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D91))</f>
@@ -3762,10 +3774,10 @@
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="76"/>
       <c r="B93" s="83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C93" s="83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D93" s="96" t="e">
         <f>_xll.qlECBNextCode(_xll.qlECBdate(D92))</f>
@@ -3809,17 +3821,17 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.7109375" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="38.28515625" customWidth="1"/>
     <col min="8" max="8" width="4.42578125" customWidth="1"/>
   </cols>
@@ -3855,20 +3867,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
-      <c r="B3" s="25"/>
-      <c r="C3" s="21">
+      <c r="B3" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="4">
         <v>2</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="E3" s="5" t="str">
         <f t="shared" ref="E3:E13" si="0">Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix</f>
-        <v>HKD2X1S_Quote</v>
+        <v>HKDAM1H2M_Quote</v>
       </c>
       <c r="F3" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2X1S_Quote#0002</v>
+        <v>HKDAM1H2M_Quote#0002</v>
       </c>
       <c r="G3" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -3878,20 +3892,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="22">
+      <c r="B4" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKD3X1S_Quote</v>
+        <v>HKDAM1H3M_Quote</v>
       </c>
       <c r="F4" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C4&amp;$D4&amp;$B4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3X1S_Quote#0002</v>
+        <v>HKDAM1H3M_Quote#0002</v>
       </c>
       <c r="G4" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -3901,20 +3917,22 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
-      <c r="B5" s="27"/>
-      <c r="C5" s="22">
+      <c r="B5" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKD4X1S_Quote</v>
+        <v>HKDAM1H4M_Quote</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4X1S_Quote#0002</v>
+        <v>HKDAM1H4M_Quote#0002</v>
       </c>
       <c r="G5" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -3924,20 +3942,22 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
-      <c r="B6" s="27"/>
-      <c r="C6" s="22">
+      <c r="B6" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKD5X1S_Quote</v>
+        <v>HKDAM1H5M_Quote</v>
       </c>
       <c r="F6" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD5X1S_Quote#0002</v>
+        <v>HKDAM1H5M_Quote#0002</v>
       </c>
       <c r="G6" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -3947,20 +3967,22 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
-      <c r="B7" s="27"/>
-      <c r="C7" s="22">
+      <c r="B7" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKD6X1S_Quote</v>
+        <v>HKDAM1H6M_Quote</v>
       </c>
       <c r="F7" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD6X1S_Quote#0002</v>
+        <v>HKDAM1H6M_Quote#0002</v>
       </c>
       <c r="G7" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3970,20 +3992,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
-      <c r="B8" s="27"/>
-      <c r="C8" s="22">
+      <c r="B8" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKD7X1S_Quote</v>
+        <v>HKDAM1H7M_Quote</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD7X1S_Quote#0002</v>
+        <v>HKDAM1H7M_Quote#0002</v>
       </c>
       <c r="G8" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -3993,20 +4017,22 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
-      <c r="B9" s="27"/>
-      <c r="C9" s="22">
+      <c r="B9" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKD8X1S_Quote</v>
+        <v>HKDAM1H8M_Quote</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD8X1S_Quote#0002</v>
+        <v>HKDAM1H8M_Quote#0002</v>
       </c>
       <c r="G9" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4016,20 +4042,22 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="40"/>
-      <c r="B10" s="27"/>
-      <c r="C10" s="22">
+      <c r="B10" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="1">
         <v>9</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKD9X1S_Quote</v>
+        <v>HKDAM1H9M_Quote</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD9X1S_Quote#0002</v>
+        <v>HKDAM1H9M_Quote#0002</v>
       </c>
       <c r="G10" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4039,20 +4067,22 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
-      <c r="B11" s="27"/>
-      <c r="C11" s="22">
+      <c r="B11" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKD10X1S_Quote</v>
+        <v>HKDAM1H10M_Quote</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD10X1S_Quote#0002</v>
+        <v>HKDAM1H10M_Quote#0002</v>
       </c>
       <c r="G11" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4062,20 +4092,22 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="22">
+      <c r="B12" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="1">
         <v>11</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKD11X1S_Quote</v>
+        <v>HKDAM1H11M_Quote</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD11X1S_Quote#0002</v>
+        <v>HKDAM1H11M_Quote#0002</v>
       </c>
       <c r="G12" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4085,20 +4117,22 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
-      <c r="B13" s="27"/>
-      <c r="C13" s="22">
-        <v>12</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>55</v>
+      <c r="B13" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKD12X1S_Quote</v>
+        <v>HKDAM1H1Y_Quote</v>
       </c>
       <c r="F13" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD12X1S_Quote#0002</v>
+        <v>HKDAM1H1Y_Quote#0002</v>
       </c>
       <c r="G13" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4356,10 +4390,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet9"/>
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4390,17 +4424,17 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
       <c r="E2" s="32" t="str">
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
-        <v>HKD_010_SwAM3L.xml</v>
+        <v>HKD_010_SwQM3H.xml</v>
       </c>
       <c r="F2" s="33">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>38</v>
       </c>
       <c r="G2" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F2)</f>
@@ -4408,35 +4442,35 @@
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="L2" s="61" t="s">
         <v>78</v>
-      </c>
-      <c r="L2" s="61" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="40"/>
       <c r="B3" s="25" t="s">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="C3" s="21" t="str">
-        <f t="array" ref="C3:C39">VLOOKUP(Currency,SwapMainSetConventions,2)</f>
-        <v>AM</v>
+        <f t="array" ref="C3:C40">VLOOKUP(Currency,SwapMainSetConventions,2,FALSE)</f>
+        <v>QM</v>
       </c>
       <c r="D3" s="21" t="str">
-        <f t="array" ref="D3:D39">VLOOKUP(Currency,SwapMainSetConventions,3)</f>
-        <v>3L</v>
+        <f t="array" ref="D3:D40">VLOOKUP(Currency,SwapMainSetConventions,3,FALSE)</f>
+        <v>3H</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E39" si="0">Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix</f>
-        <v>HKDAM3L1Y_Quote</v>
+        <f t="shared" ref="E3:E40" si="0">Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix</f>
+        <v>HKDQM3H6M_Quote</v>
       </c>
       <c r="F3" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L1Y_Quote#0002</v>
+        <v>HKDQM3H6M_Quote#0002</v>
       </c>
       <c r="G3" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -4444,41 +4478,41 @@
       </c>
       <c r="H3" s="41"/>
       <c r="J3" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="64" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="65" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="40"/>
-      <c r="B4" s="27" t="s">
-        <v>19</v>
+      <c r="B4" s="25" t="s">
+        <v>18</v>
       </c>
       <c r="C4" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D4" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L15M_Quote</v>
+        <v>HKDQM3H1Y_Quote</v>
       </c>
       <c r="F4" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C4&amp;$D4&amp;$B4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L15M_Quote#0002</v>
-      </c>
-      <c r="G4" s="28" t="str">
+        <v>HKDQM3H1Y_Quote#0002</v>
+      </c>
+      <c r="G4" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
         <v/>
       </c>
       <c r="H4" s="41"/>
       <c r="J4" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="64" t="s">
         <v>1</v>
@@ -4490,198 +4524,213 @@
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="40"/>
       <c r="B5" s="27" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D5" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L18M_Quote</v>
+        <v>HKDQM3H15M_Quote</v>
       </c>
       <c r="F5" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L18M_Quote#0002</v>
-      </c>
-      <c r="G5" s="28" t="str">
+        <v>HKDQM3H15M_Quote#0002</v>
+      </c>
+      <c r="G5" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
         <v/>
       </c>
       <c r="H5" s="41"/>
       <c r="J5" s="62" t="s">
-        <v>82</v>
+        <v>105</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="L5" s="65" t="s">
-        <v>75</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="40"/>
       <c r="B6" s="27" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D6" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L21M_Quote</v>
+        <v>HKDQM3H18M_Quote</v>
       </c>
       <c r="F6" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L21M_Quote#0002</v>
+        <v>HKDQM3H18M_Quote#0002</v>
       </c>
       <c r="G6" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
         <v/>
       </c>
       <c r="H6" s="41"/>
-      <c r="J6" s="62" t="s">
-        <v>83</v>
-      </c>
-      <c r="K6" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="L6" s="65" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J6" s="62"/>
+      <c r="K6" s="64"/>
+      <c r="L6" s="65"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="40"/>
       <c r="B7" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D7" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L2Y_Quote</v>
+        <v>HKDQM3H21M_Quote</v>
       </c>
       <c r="F7" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L2Y_Quote#0002</v>
+        <v>HKDQM3H21M_Quote#0002</v>
       </c>
       <c r="G7" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
         <v/>
       </c>
       <c r="H7" s="41"/>
-      <c r="J7" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="K7" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="L7" s="67" t="s">
-        <v>75</v>
-      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="64"/>
+      <c r="L7" s="65"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="40"/>
       <c r="B8" s="27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D8" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L3Y_Quote</v>
+        <v>HKDQM3H2Y_Quote</v>
       </c>
       <c r="F8" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L3Y_Quote#0002</v>
+        <v>HKDQM3H2Y_Quote#0002</v>
       </c>
       <c r="G8" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
         <v/>
       </c>
       <c r="H8" s="41"/>
+      <c r="J8" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="65" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="40"/>
       <c r="B9" s="27" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D9" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L4Y_Quote</v>
+        <v>HKDQM3H3Y_Quote</v>
       </c>
       <c r="F9" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L4Y_Quote#0002</v>
+        <v>HKDQM3H3Y_Quote#0002</v>
       </c>
       <c r="G9" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
         <v/>
       </c>
       <c r="H9" s="41"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="J9" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="L9" s="65" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D10" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L5Y_Quote</v>
+        <v>HKDQM3H4Y_Quote</v>
       </c>
       <c r="F10" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L5Y_Quote#0002</v>
+        <v>HKDQM3H4Y_Quote#0002</v>
       </c>
       <c r="G10" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
         <v/>
       </c>
       <c r="H10" s="41"/>
+      <c r="J10" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="66" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" s="67" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="40"/>
       <c r="B11" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C11" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D11" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L6Y_Quote</v>
+        <v>HKDQM3H5Y_Quote</v>
       </c>
       <c r="F11" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L6Y_Quote#0002</v>
+        <v>HKDQM3H5Y_Quote#0002</v>
       </c>
       <c r="G11" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4692,21 +4741,21 @@
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="40"/>
       <c r="B12" s="27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D12" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L7Y_Quote</v>
+        <v>HKDQM3H6Y_Quote</v>
       </c>
       <c r="F12" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L7Y_Quote#0002</v>
+        <v>HKDQM3H6Y_Quote#0002</v>
       </c>
       <c r="G12" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4717,21 +4766,21 @@
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="40"/>
       <c r="B13" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D13" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L8Y_Quote</v>
+        <v>HKDQM3H7Y_Quote</v>
       </c>
       <c r="F13" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L8Y_Quote#0002</v>
+        <v>HKDQM3H7Y_Quote#0002</v>
       </c>
       <c r="G13" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4742,21 +4791,21 @@
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="40"/>
       <c r="B14" s="27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D14" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L9Y_Quote</v>
+        <v>HKDQM3H8Y_Quote</v>
       </c>
       <c r="F14" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L9Y_Quote#0002</v>
+        <v>HKDQM3H8Y_Quote#0002</v>
       </c>
       <c r="G14" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4767,21 +4816,21 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="40"/>
       <c r="B15" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D15" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L10Y_Quote</v>
+        <v>HKDQM3H9Y_Quote</v>
       </c>
       <c r="F15" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L10Y_Quote#0002</v>
+        <v>HKDQM3H9Y_Quote#0002</v>
       </c>
       <c r="G15" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4792,21 +4841,21 @@
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="40"/>
       <c r="B16" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D16" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E16" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L11Y_Quote</v>
+        <v>HKDQM3H10Y_Quote</v>
       </c>
       <c r="F16" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L11Y_Quote#0002</v>
+        <v>HKDQM3H10Y_Quote#0002</v>
       </c>
       <c r="G16" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4817,21 +4866,21 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="40"/>
       <c r="B17" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D17" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E17" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L12Y_Quote</v>
+        <v>HKDQM3H11Y_Quote</v>
       </c>
       <c r="F17" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L12Y_Quote#0002</v>
+        <v>HKDQM3H11Y_Quote#0002</v>
       </c>
       <c r="G17" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4842,21 +4891,21 @@
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="40"/>
       <c r="B18" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D18" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E18" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L13Y_Quote</v>
+        <v>HKDQM3H12Y_Quote</v>
       </c>
       <c r="F18" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L13Y_Quote#0002</v>
+        <v>HKDQM3H12Y_Quote#0002</v>
       </c>
       <c r="G18" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4867,21 +4916,21 @@
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="40"/>
       <c r="B19" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D19" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E19" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L14Y_Quote</v>
+        <v>HKDQM3H13Y_Quote</v>
       </c>
       <c r="F19" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L14Y_Quote#0002</v>
+        <v>HKDQM3H13Y_Quote#0002</v>
       </c>
       <c r="G19" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -4892,21 +4941,21 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="40"/>
       <c r="B20" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D20" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E20" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L15Y_Quote</v>
+        <v>HKDQM3H14Y_Quote</v>
       </c>
       <c r="F20" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L15Y_Quote#0002</v>
+        <v>HKDQM3H14Y_Quote#0002</v>
       </c>
       <c r="G20" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -4917,21 +4966,21 @@
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="40"/>
       <c r="B21" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D21" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E21" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L16Y_Quote</v>
+        <v>HKDQM3H15Y_Quote</v>
       </c>
       <c r="F21" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L16Y_Quote#0002</v>
+        <v>HKDQM3H15Y_Quote#0002</v>
       </c>
       <c r="G21" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -4942,21 +4991,21 @@
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="40"/>
       <c r="B22" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D22" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E22" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L17Y_Quote</v>
+        <v>HKDQM3H16Y_Quote</v>
       </c>
       <c r="F22" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L17Y_Quote#0002</v>
+        <v>HKDQM3H16Y_Quote#0002</v>
       </c>
       <c r="G22" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -4967,21 +5016,21 @@
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="40"/>
       <c r="B23" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D23" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E23" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L18Y_Quote</v>
+        <v>HKDQM3H17Y_Quote</v>
       </c>
       <c r="F23" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L18Y_Quote#0002</v>
+        <v>HKDQM3H17Y_Quote#0002</v>
       </c>
       <c r="G23" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -4992,21 +5041,21 @@
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="40"/>
       <c r="B24" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C24" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D24" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E24" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L19Y_Quote</v>
+        <v>HKDQM3H18Y_Quote</v>
       </c>
       <c r="F24" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L19Y_Quote#0002</v>
+        <v>HKDQM3H18Y_Quote#0002</v>
       </c>
       <c r="G24" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -5017,21 +5066,21 @@
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="40"/>
       <c r="B25" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C25" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D25" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E25" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L20Y_Quote</v>
+        <v>HKDQM3H19Y_Quote</v>
       </c>
       <c r="F25" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L20Y_Quote#0002</v>
+        <v>HKDQM3H19Y_Quote#0002</v>
       </c>
       <c r="G25" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -5042,21 +5091,21 @@
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="40"/>
       <c r="B26" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C26" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D26" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E26" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L21Y_Quote</v>
+        <v>HKDQM3H20Y_Quote</v>
       </c>
       <c r="F26" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L21Y_Quote#0002</v>
+        <v>HKDQM3H20Y_Quote#0002</v>
       </c>
       <c r="G26" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -5067,21 +5116,21 @@
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="40"/>
       <c r="B27" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D27" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E27" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L22Y_Quote</v>
+        <v>HKDQM3H21Y_Quote</v>
       </c>
       <c r="F27" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L22Y_Quote#0002</v>
+        <v>HKDQM3H21Y_Quote#0002</v>
       </c>
       <c r="G27" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -5092,21 +5141,21 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="40"/>
       <c r="B28" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C28" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D28" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E28" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L23Y_Quote</v>
+        <v>HKDQM3H22Y_Quote</v>
       </c>
       <c r="F28" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L23Y_Quote#0002</v>
+        <v>HKDQM3H22Y_Quote#0002</v>
       </c>
       <c r="G28" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -5117,21 +5166,21 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="40"/>
       <c r="B29" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C29" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D29" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E29" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L24Y_Quote</v>
+        <v>HKDQM3H23Y_Quote</v>
       </c>
       <c r="F29" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L24Y_Quote#0002</v>
+        <v>HKDQM3H23Y_Quote#0002</v>
       </c>
       <c r="G29" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -5142,21 +5191,21 @@
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="40"/>
       <c r="B30" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C30" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D30" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E30" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L25Y_Quote</v>
+        <v>HKDQM3H24Y_Quote</v>
       </c>
       <c r="F30" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L25Y_Quote#0002</v>
+        <v>HKDQM3H24Y_Quote#0002</v>
       </c>
       <c r="G30" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -5167,21 +5216,21 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="40"/>
       <c r="B31" s="27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C31" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D31" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E31" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L26Y_Quote</v>
+        <v>HKDQM3H25Y_Quote</v>
       </c>
       <c r="F31" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L26Y_Quote#0002</v>
+        <v>HKDQM3H25Y_Quote#0002</v>
       </c>
       <c r="G31" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -5192,21 +5241,21 @@
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="40"/>
       <c r="B32" s="27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D32" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E32" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L27Y_Quote</v>
+        <v>HKDQM3H26Y_Quote</v>
       </c>
       <c r="F32" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L27Y_Quote#0002</v>
+        <v>HKDQM3H26Y_Quote#0002</v>
       </c>
       <c r="G32" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -5217,21 +5266,21 @@
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="40"/>
       <c r="B33" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D33" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E33" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L28Y_Quote</v>
+        <v>HKDQM3H27Y_Quote</v>
       </c>
       <c r="F33" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L28Y_Quote#0002</v>
+        <v>HKDQM3H27Y_Quote#0002</v>
       </c>
       <c r="G33" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -5242,21 +5291,21 @@
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="40"/>
       <c r="B34" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D34" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E34" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L29Y_Quote</v>
+        <v>HKDQM3H28Y_Quote</v>
       </c>
       <c r="F34" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L29Y_Quote#0002</v>
+        <v>HKDQM3H28Y_Quote#0002</v>
       </c>
       <c r="G34" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -5267,21 +5316,21 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="40"/>
       <c r="B35" s="27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D35" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E35" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L30Y_Quote</v>
+        <v>HKDQM3H29Y_Quote</v>
       </c>
       <c r="F35" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L30Y_Quote#0002</v>
+        <v>HKDQM3H29Y_Quote#0002</v>
       </c>
       <c r="G35" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -5292,21 +5341,21 @@
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="40"/>
       <c r="B36" s="27" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C36" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D36" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E36" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L35Y_Quote</v>
+        <v>HKDQM3H30Y_Quote</v>
       </c>
       <c r="F36" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L35Y_Quote#0002</v>
+        <v>HKDQM3H30Y_Quote#0002</v>
       </c>
       <c r="G36" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -5317,21 +5366,21 @@
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="40"/>
       <c r="B37" s="27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C37" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D37" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E37" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L40Y_Quote</v>
+        <v>HKDQM3H35Y_Quote</v>
       </c>
       <c r="F37" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L40Y_Quote#0002</v>
+        <v>HKDQM3H35Y_Quote#0002</v>
       </c>
       <c r="G37" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -5342,21 +5391,21 @@
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="40"/>
       <c r="B38" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D38" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E38" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L50Y_Quote</v>
+        <v>HKDQM3H40Y_Quote</v>
       </c>
       <c r="F38" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L50Y_Quote#0002</v>
+        <v>HKDQM3H40Y_Quote#0002</v>
       </c>
       <c r="G38" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -5367,21 +5416,21 @@
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="40"/>
       <c r="B39" s="27" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C39" s="21" t="str">
-        <v>AM</v>
+        <v>QM</v>
       </c>
       <c r="D39" s="21" t="str">
-        <v>3L</v>
+        <v>3H</v>
       </c>
       <c r="E39" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>HKDAM3L60Y_Quote</v>
+        <v>HKDQM3H50Y_Quote</v>
       </c>
       <c r="F39" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM3L60Y_Quote#0002</v>
+        <v>HKDQM3H50Y_Quote#0002</v>
       </c>
       <c r="G39" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -5389,15 +5438,40 @@
       </c>
       <c r="H39" s="41"/>
     </row>
-    <row r="40" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="42"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="43"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="43"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="45"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" s="40"/>
+      <c r="B40" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="21" t="str">
+        <v>QM</v>
+      </c>
+      <c r="D40" s="21" t="str">
+        <v>3H</v>
+      </c>
+      <c r="E40" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>HKDQM3H60Y_Quote</v>
+      </c>
+      <c r="F40" s="5" t="str">
+        <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
+        <v>HKDQM3H60Y_Quote#0002</v>
+      </c>
+      <c r="G40" s="28" t="str">
+        <f>_xll.ohRangeRetrieveError(F40)</f>
+        <v/>
+      </c>
+      <c r="H40" s="41"/>
+    </row>
+    <row r="41" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="42"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="43"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -5446,7 +5520,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="40"/>
       <c r="B2" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -5464,13 +5538,13 @@
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K2" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="L2" s="61" t="s">
         <v>78</v>
-      </c>
-      <c r="L2" s="61" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -5500,13 +5574,13 @@
       </c>
       <c r="H3" s="41"/>
       <c r="J3" s="62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="68" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -5534,7 +5608,7 @@
       </c>
       <c r="H4" s="41"/>
       <c r="J4" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K4" s="64" t="s">
         <v>1</v>
@@ -5568,13 +5642,13 @@
       </c>
       <c r="H5" s="41"/>
       <c r="J5" s="62" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K5" s="64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L5" s="65" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -5602,13 +5676,13 @@
       </c>
       <c r="H6" s="41"/>
       <c r="J6" s="62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K6" s="68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L6" s="69" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12" thickBot="1" x14ac:dyDescent="0.25">
@@ -5636,13 +5710,13 @@
       </c>
       <c r="H7" s="41"/>
       <c r="J7" s="63" t="s">
+        <v>72</v>
+      </c>
+      <c r="K7" s="66" t="s">
         <v>73</v>
       </c>
-      <c r="K7" s="66" t="s">
-        <v>74</v>
-      </c>
       <c r="L7" s="67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_SwapQuotes.xlsx
@@ -14,9 +14,6 @@
     <sheet name="Swap3M" sheetId="18" r:id="rId5"/>
     <sheet name="Swap6M" sheetId="4" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="Currency">'General Settings'!$D$14</definedName>
     <definedName name="FileOverwrite">'General Settings'!$D$9</definedName>
@@ -1065,22 +1062,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Feuil1"/>
-    </sheetNames>
-    <definedNames>
-      <definedName name="qlSerializationPath"/>
-    </definedNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1390,7 +1371,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.2.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Jan 18 2013 12:11:06</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1458,8 +1439,8 @@
         <v>8</v>
       </c>
       <c r="D8" s="16" t="str">
-        <f>[1]!qlSerializationPath(Trigger)</f>
-        <v>\\srv0001\Risorse\WorkGroup\IMI_Workbooks\Production\QLXL_R01030x\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <f>qlSerializationPath(Trigger)</f>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1599,13 +1580,13 @@
         <f>Currency&amp;"_010_"&amp;"OIS.xml"</f>
         <v>HKD_010_OIS.xml</v>
       </c>
-      <c r="F2" s="80">
+      <c r="F2" s="80" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F93),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>68</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="81" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_OIS.xml</v>
       </c>
       <c r="H2" s="82"/>
     </row>
@@ -1624,7 +1605,7 @@
       </c>
       <c r="F3" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B3&amp;$C3&amp;$D3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOISSW_Quote#0002</v>
+        <v>HKDOISSW_Quote#0001</v>
       </c>
       <c r="G3" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -1647,7 +1628,7 @@
       </c>
       <c r="F4" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B4&amp;$C4&amp;$D4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS2W_Quote#0002</v>
+        <v>HKDOIS2W_Quote#0001</v>
       </c>
       <c r="G4" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -1670,7 +1651,7 @@
       </c>
       <c r="F5" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B5&amp;$C5&amp;$D5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS3W_Quote#0002</v>
+        <v>HKDOIS3W_Quote#0001</v>
       </c>
       <c r="G5" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -1693,7 +1674,7 @@
       </c>
       <c r="F6" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B6&amp;$C6&amp;$D6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS1M_Quote#0002</v>
+        <v>HKDOIS1M_Quote#0001</v>
       </c>
       <c r="G6" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1716,7 +1697,7 @@
       </c>
       <c r="F7" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B7&amp;$C7&amp;$D7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS2M_Quote#0002</v>
+        <v>HKDOIS2M_Quote#0001</v>
       </c>
       <c r="G7" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1739,7 +1720,7 @@
       </c>
       <c r="F8" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B8&amp;$C8&amp;$D8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS3M_Quote#0002</v>
+        <v>HKDOIS3M_Quote#0001</v>
       </c>
       <c r="G8" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1762,7 +1743,7 @@
       </c>
       <c r="F9" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B9&amp;$C9&amp;$D9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS4M_Quote#0002</v>
+        <v>HKDOIS4M_Quote#0001</v>
       </c>
       <c r="G9" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1785,7 +1766,7 @@
       </c>
       <c r="F10" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B10&amp;$C10&amp;$D10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS5M_Quote#0002</v>
+        <v>HKDOIS5M_Quote#0001</v>
       </c>
       <c r="G10" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1808,7 +1789,7 @@
       </c>
       <c r="F11" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B11&amp;$C11&amp;$D11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS6M_Quote#0002</v>
+        <v>HKDOIS6M_Quote#0001</v>
       </c>
       <c r="G11" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1831,7 +1812,7 @@
       </c>
       <c r="F12" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B12&amp;$C12&amp;$D12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS7M_Quote#0002</v>
+        <v>HKDOIS7M_Quote#0001</v>
       </c>
       <c r="G12" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1854,7 +1835,7 @@
       </c>
       <c r="F13" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B13&amp;$C13&amp;$D13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS8M_Quote#0002</v>
+        <v>HKDOIS8M_Quote#0001</v>
       </c>
       <c r="G13" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1877,7 +1858,7 @@
       </c>
       <c r="F14" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B14&amp;$C14&amp;$D14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS9M_Quote#0002</v>
+        <v>HKDOIS9M_Quote#0001</v>
       </c>
       <c r="G14" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1900,7 +1881,7 @@
       </c>
       <c r="F15" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B15&amp;$C15&amp;$D15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS10M_Quote#0002</v>
+        <v>HKDOIS10M_Quote#0001</v>
       </c>
       <c r="G15" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1923,7 +1904,7 @@
       </c>
       <c r="F16" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B16&amp;$C16&amp;$D16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS11M_Quote#0002</v>
+        <v>HKDOIS11M_Quote#0001</v>
       </c>
       <c r="G16" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1946,7 +1927,7 @@
       </c>
       <c r="F17" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B17&amp;$C17&amp;$D17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS1Y_Quote#0002</v>
+        <v>HKDOIS1Y_Quote#0001</v>
       </c>
       <c r="G17" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1969,7 +1950,7 @@
       </c>
       <c r="F18" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B18&amp;$C18&amp;$D18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS13M_Quote#0002</v>
+        <v>HKDOIS13M_Quote#0001</v>
       </c>
       <c r="G18" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1992,7 +1973,7 @@
       </c>
       <c r="F19" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B19&amp;$C19&amp;$D19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS14M_Quote#0002</v>
+        <v>HKDOIS14M_Quote#0001</v>
       </c>
       <c r="G19" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -2015,7 +1996,7 @@
       </c>
       <c r="F20" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B20&amp;$C20&amp;$D20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS15M_Quote#0002</v>
+        <v>HKDOIS15M_Quote#0001</v>
       </c>
       <c r="G20" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -2038,7 +2019,7 @@
       </c>
       <c r="F21" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B21&amp;$C21&amp;$D21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS16M_Quote#0002</v>
+        <v>HKDOIS16M_Quote#0001</v>
       </c>
       <c r="G21" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -2061,7 +2042,7 @@
       </c>
       <c r="F22" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B22&amp;$C22&amp;$D22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS17M_Quote#0002</v>
+        <v>HKDOIS17M_Quote#0001</v>
       </c>
       <c r="G22" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2084,7 +2065,7 @@
       </c>
       <c r="F23" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B23&amp;$C23&amp;$D23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS18M_Quote#0002</v>
+        <v>HKDOIS18M_Quote#0001</v>
       </c>
       <c r="G23" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -2107,7 +2088,7 @@
       </c>
       <c r="F24" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B24&amp;$C24&amp;$D24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS19M_Quote#0002</v>
+        <v>HKDOIS19M_Quote#0001</v>
       </c>
       <c r="G24" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2130,7 +2111,7 @@
       </c>
       <c r="F25" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B25&amp;$C25&amp;$D25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS20M_Quote#0002</v>
+        <v>HKDOIS20M_Quote#0001</v>
       </c>
       <c r="G25" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2153,7 +2134,7 @@
       </c>
       <c r="F26" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B26&amp;$C26&amp;$D26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS21M_Quote#0002</v>
+        <v>HKDOIS21M_Quote#0001</v>
       </c>
       <c r="G26" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2176,7 +2157,7 @@
       </c>
       <c r="F27" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B27&amp;$C27&amp;$D27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS22M_Quote#0002</v>
+        <v>HKDOIS22M_Quote#0001</v>
       </c>
       <c r="G27" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2199,7 +2180,7 @@
       </c>
       <c r="F28" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B28&amp;$C28&amp;$D28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS23M_Quote#0002</v>
+        <v>HKDOIS23M_Quote#0001</v>
       </c>
       <c r="G28" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2222,7 +2203,7 @@
       </c>
       <c r="F29" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B29&amp;$C29&amp;$D29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS2Y_Quote#0002</v>
+        <v>HKDOIS2Y_Quote#0001</v>
       </c>
       <c r="G29" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2245,7 +2226,7 @@
       </c>
       <c r="F30" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B30&amp;$C30&amp;$D30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS27M_Quote#0002</v>
+        <v>HKDOIS27M_Quote#0001</v>
       </c>
       <c r="G30" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2268,7 +2249,7 @@
       </c>
       <c r="F31" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B31&amp;$C31&amp;$D31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS30M_Quote#0002</v>
+        <v>HKDOIS30M_Quote#0001</v>
       </c>
       <c r="G31" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2291,7 +2272,7 @@
       </c>
       <c r="F32" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B32&amp;$C32&amp;$D32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS33M_Quote#0002</v>
+        <v>HKDOIS33M_Quote#0001</v>
       </c>
       <c r="G32" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2314,7 +2295,7 @@
       </c>
       <c r="F33" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B33&amp;$C33&amp;$D33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS3Y_Quote#0002</v>
+        <v>HKDOIS3Y_Quote#0001</v>
       </c>
       <c r="G33" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2337,7 +2318,7 @@
       </c>
       <c r="F34" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B34&amp;$C34&amp;$D34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS39M_Quote#0002</v>
+        <v>HKDOIS39M_Quote#0001</v>
       </c>
       <c r="G34" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2360,7 +2341,7 @@
       </c>
       <c r="F35" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B35&amp;$C35&amp;$D35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS42M_Quote#0002</v>
+        <v>HKDOIS42M_Quote#0001</v>
       </c>
       <c r="G35" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2383,7 +2364,7 @@
       </c>
       <c r="F36" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B36&amp;$C36&amp;$D36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS45M_Quote#0002</v>
+        <v>HKDOIS45M_Quote#0001</v>
       </c>
       <c r="G36" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2406,7 +2387,7 @@
       </c>
       <c r="F37" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B37&amp;$C37&amp;$D37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS4Y_Quote#0002</v>
+        <v>HKDOIS4Y_Quote#0001</v>
       </c>
       <c r="G37" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2429,7 +2410,7 @@
       </c>
       <c r="F38" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B38&amp;$C38&amp;$D38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS51M_Quote#0002</v>
+        <v>HKDOIS51M_Quote#0001</v>
       </c>
       <c r="G38" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2452,7 +2433,7 @@
       </c>
       <c r="F39" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B39&amp;$C39&amp;$D39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS54M_Quote#0002</v>
+        <v>HKDOIS54M_Quote#0001</v>
       </c>
       <c r="G39" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2475,7 +2456,7 @@
       </c>
       <c r="F40" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B40&amp;$C40&amp;$D40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS57M_Quote#0002</v>
+        <v>HKDOIS57M_Quote#0001</v>
       </c>
       <c r="G40" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2498,7 +2479,7 @@
       </c>
       <c r="F41" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B41&amp;$C41&amp;$D41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS5Y_Quote#0002</v>
+        <v>HKDOIS5Y_Quote#0001</v>
       </c>
       <c r="G41" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -2521,7 +2502,7 @@
       </c>
       <c r="F42" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B42&amp;$C42&amp;$D42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS6Y_Quote#0002</v>
+        <v>HKDOIS6Y_Quote#0001</v>
       </c>
       <c r="G42" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -2544,7 +2525,7 @@
       </c>
       <c r="F43" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B43&amp;$C43&amp;$D43&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS7Y_Quote#0002</v>
+        <v>HKDOIS7Y_Quote#0001</v>
       </c>
       <c r="G43" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -2567,7 +2548,7 @@
       </c>
       <c r="F44" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B44&amp;$C44&amp;$D44&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS8Y_Quote#0002</v>
+        <v>HKDOIS8Y_Quote#0001</v>
       </c>
       <c r="G44" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -2590,7 +2571,7 @@
       </c>
       <c r="F45" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B45&amp;$C45&amp;$D45&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS9Y_Quote#0002</v>
+        <v>HKDOIS9Y_Quote#0001</v>
       </c>
       <c r="G45" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -2613,7 +2594,7 @@
       </c>
       <c r="F46" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B46&amp;$C46&amp;$D46&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS10Y_Quote#0002</v>
+        <v>HKDOIS10Y_Quote#0001</v>
       </c>
       <c r="G46" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -2636,7 +2617,7 @@
       </c>
       <c r="F47" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B47&amp;$C47&amp;$D47&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS12Y_Quote#0002</v>
+        <v>HKDOIS12Y_Quote#0001</v>
       </c>
       <c r="G47" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -2659,7 +2640,7 @@
       </c>
       <c r="F48" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B48&amp;$C48&amp;$D48&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS15Y_Quote#0002</v>
+        <v>HKDOIS15Y_Quote#0001</v>
       </c>
       <c r="G48" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -2682,7 +2663,7 @@
       </c>
       <c r="F49" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B49&amp;$C49&amp;$D49&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS20Y_Quote#0002</v>
+        <v>HKDOIS20Y_Quote#0001</v>
       </c>
       <c r="G49" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -2705,7 +2686,7 @@
       </c>
       <c r="F50" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B50&amp;$C50&amp;$D50&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS25Y_Quote#0002</v>
+        <v>HKDOIS25Y_Quote#0001</v>
       </c>
       <c r="G50" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -2728,7 +2709,7 @@
       </c>
       <c r="F51" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B51&amp;$C51&amp;$D51&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS27Y_Quote#0002</v>
+        <v>HKDOIS27Y_Quote#0001</v>
       </c>
       <c r="G51" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -2751,7 +2732,7 @@
       </c>
       <c r="F52" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B52&amp;$C52&amp;$D52&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS30Y_Quote#0002</v>
+        <v>HKDOIS30Y_Quote#0001</v>
       </c>
       <c r="G52" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -2774,7 +2755,7 @@
       </c>
       <c r="F53" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B53&amp;$C53&amp;$D53&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS35Y_Quote#0002</v>
+        <v>HKDOIS35Y_Quote#0001</v>
       </c>
       <c r="G53" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -2797,7 +2778,7 @@
       </c>
       <c r="F54" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B54&amp;$C54&amp;$D54&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS40Y_Quote#0002</v>
+        <v>HKDOIS40Y_Quote#0001</v>
       </c>
       <c r="G54" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -2820,7 +2801,7 @@
       </c>
       <c r="F55" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B55&amp;$C55&amp;$D55&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS45Y_Quote#0002</v>
+        <v>HKDOIS45Y_Quote#0001</v>
       </c>
       <c r="G55" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -2843,7 +2824,7 @@
       </c>
       <c r="F56" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B56&amp;$C56&amp;$D56&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS50Y_Quote#0002</v>
+        <v>HKDOIS50Y_Quote#0001</v>
       </c>
       <c r="G56" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -2879,7 +2860,7 @@
       </c>
       <c r="F58" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISNOV12_Quote#0002</v>
+        <v>HKDFEDOISNOV12_Quote#0001</v>
       </c>
       <c r="G58" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -2905,7 +2886,7 @@
       </c>
       <c r="F59" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B59&amp;$C59&amp;$D59&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISDEC12_Quote#0002</v>
+        <v>HKDFEDOISDEC12_Quote#0001</v>
       </c>
       <c r="G59" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -2931,7 +2912,7 @@
       </c>
       <c r="F60" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B60&amp;$C60&amp;$D60&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJAN13_Quote#0002</v>
+        <v>HKDFEDOISJAN13_Quote#0001</v>
       </c>
       <c r="G60" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -2957,7 +2938,7 @@
       </c>
       <c r="F61" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B61&amp;$C61&amp;$D61&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISFEB13_Quote#0002</v>
+        <v>HKDFEDOISFEB13_Quote#0001</v>
       </c>
       <c r="G61" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -2983,7 +2964,7 @@
       </c>
       <c r="F62" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B62&amp;$C62&amp;$D62&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISMAR13_Quote#0002</v>
+        <v>HKDFEDOISMAR13_Quote#0001</v>
       </c>
       <c r="G62" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -3009,7 +2990,7 @@
       </c>
       <c r="F63" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B63&amp;$C63&amp;$D63&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISAPR13_Quote#0002</v>
+        <v>HKDFEDOISAPR13_Quote#0001</v>
       </c>
       <c r="G63" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -3035,7 +3016,7 @@
       </c>
       <c r="F64" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B64&amp;$C64&amp;$D64&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISMAY13_Quote#0002</v>
+        <v>HKDFEDOISMAY13_Quote#0001</v>
       </c>
       <c r="G64" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -3061,7 +3042,7 @@
       </c>
       <c r="F65" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B65&amp;$C65&amp;$D65&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJUN13_Quote#0002</v>
+        <v>HKDFEDOISJUN13_Quote#0001</v>
       </c>
       <c r="G65" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -3087,7 +3068,7 @@
       </c>
       <c r="F66" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B66&amp;$C66&amp;$D66&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJUL13_Quote#0002</v>
+        <v>HKDFEDOISJUL13_Quote#0001</v>
       </c>
       <c r="G66" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -3113,7 +3094,7 @@
       </c>
       <c r="F67" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B67&amp;$C67&amp;$D67&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISAUG13_Quote#0002</v>
+        <v>HKDFEDOISAUG13_Quote#0001</v>
       </c>
       <c r="G67" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -3139,7 +3120,7 @@
       </c>
       <c r="F68" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B68&amp;$C68&amp;$D68&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISSEP13_Quote#0002</v>
+        <v>HKDFEDOISSEP13_Quote#0001</v>
       </c>
       <c r="G68" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -3165,7 +3146,7 @@
       </c>
       <c r="F69" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B69&amp;$C69&amp;$D69&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISOCT13_Quote#0002</v>
+        <v>HKDFEDOISOCT13_Quote#0001</v>
       </c>
       <c r="G69" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -3191,7 +3172,7 @@
       </c>
       <c r="F70" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B70&amp;$C70&amp;$D70&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISNOV13_Quote#0002</v>
+        <v>HKDFEDOISNOV13_Quote#0001</v>
       </c>
       <c r="G70" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -3217,7 +3198,7 @@
       </c>
       <c r="F71" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B71&amp;$C71&amp;$D71&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISDEC13_Quote#0002</v>
+        <v>HKDFEDOISDEC13_Quote#0001</v>
       </c>
       <c r="G71" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -3855,13 +3836,13 @@
         <f>Currency&amp;"_010_Sw"&amp;"1M.xml"</f>
         <v>HKD_010_Sw1M.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>11</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_Sw1M.xml</v>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -3882,7 +3863,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H2M_Quote#0002</v>
+        <v>HKDAM1H2M_Quote#0001</v>
       </c>
       <c r="G3" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -3907,7 +3888,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C4&amp;$D4&amp;$B4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H3M_Quote#0002</v>
+        <v>HKDAM1H3M_Quote#0001</v>
       </c>
       <c r="G4" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -3932,7 +3913,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H4M_Quote#0002</v>
+        <v>HKDAM1H4M_Quote#0001</v>
       </c>
       <c r="G5" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -3957,7 +3938,7 @@
       </c>
       <c r="F6" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H5M_Quote#0002</v>
+        <v>HKDAM1H5M_Quote#0001</v>
       </c>
       <c r="G6" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -3982,7 +3963,7 @@
       </c>
       <c r="F7" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H6M_Quote#0002</v>
+        <v>HKDAM1H6M_Quote#0001</v>
       </c>
       <c r="G7" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4007,7 +3988,7 @@
       </c>
       <c r="F8" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H7M_Quote#0002</v>
+        <v>HKDAM1H7M_Quote#0001</v>
       </c>
       <c r="G8" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4032,7 +4013,7 @@
       </c>
       <c r="F9" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H8M_Quote#0002</v>
+        <v>HKDAM1H8M_Quote#0001</v>
       </c>
       <c r="G9" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4057,7 +4038,7 @@
       </c>
       <c r="F10" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H9M_Quote#0002</v>
+        <v>HKDAM1H9M_Quote#0001</v>
       </c>
       <c r="G10" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4082,7 +4063,7 @@
       </c>
       <c r="F11" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H10M_Quote#0002</v>
+        <v>HKDAM1H10M_Quote#0001</v>
       </c>
       <c r="G11" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4107,7 +4088,7 @@
       </c>
       <c r="F12" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H11M_Quote#0002</v>
+        <v>HKDAM1H11M_Quote#0001</v>
       </c>
       <c r="G12" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4132,7 +4113,7 @@
       </c>
       <c r="F13" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H1Y_Quote#0002</v>
+        <v>HKDAM1H1Y_Quote#0001</v>
       </c>
       <c r="G13" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4198,13 +4179,13 @@
         <f>Currency&amp;"_010_Sw"&amp;"IMM.xml"</f>
         <v>HKD_010_SwIMM.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>7</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_SwIMM.xml</v>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -4223,7 +4204,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1S12_Quote#0002</v>
+        <v>HKD1S12_Quote#0001</v>
       </c>
       <c r="G3" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -4246,7 +4227,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C4&amp;$D4&amp;$B4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2S12_Quote#0002</v>
+        <v>HKD2S12_Quote#0001</v>
       </c>
       <c r="G4" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -4269,7 +4250,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3S12_Quote#0002</v>
+        <v>HKD3S12_Quote#0001</v>
       </c>
       <c r="G5" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -4292,7 +4273,7 @@
       </c>
       <c r="F6" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4S12_Quote#0002</v>
+        <v>HKD4S12_Quote#0001</v>
       </c>
       <c r="G6" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -4315,7 +4296,7 @@
       </c>
       <c r="F7" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1S24_Quote#0002</v>
+        <v>HKD1S24_Quote#0001</v>
       </c>
       <c r="G7" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4338,7 +4319,7 @@
       </c>
       <c r="F8" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2S24_Quote#0002</v>
+        <v>HKD2S24_Quote#0001</v>
       </c>
       <c r="G8" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4361,7 +4342,7 @@
       </c>
       <c r="F9" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1S36_Quote#0002</v>
+        <v>HKD1S36_Quote#0001</v>
       </c>
       <c r="G9" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4432,13 +4413,13 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
         <v>HKD_010_SwQM3H.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>38</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_SwQM3H.xml</v>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
@@ -4470,7 +4451,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H6M_Quote#0002</v>
+        <v>HKDQM3H6M_Quote#0001</v>
       </c>
       <c r="G3" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -4504,7 +4485,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C4&amp;$D4&amp;$B4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H1Y_Quote#0002</v>
+        <v>HKDQM3H1Y_Quote#0001</v>
       </c>
       <c r="G4" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -4538,7 +4519,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H15M_Quote#0002</v>
+        <v>HKDQM3H15M_Quote#0001</v>
       </c>
       <c r="G5" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -4572,7 +4553,7 @@
       </c>
       <c r="F6" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H18M_Quote#0002</v>
+        <v>HKDQM3H18M_Quote#0001</v>
       </c>
       <c r="G6" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -4600,7 +4581,7 @@
       </c>
       <c r="F7" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H21M_Quote#0002</v>
+        <v>HKDQM3H21M_Quote#0001</v>
       </c>
       <c r="G7" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4628,7 +4609,7 @@
       </c>
       <c r="F8" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H2Y_Quote#0002</v>
+        <v>HKDQM3H2Y_Quote#0001</v>
       </c>
       <c r="G8" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4662,7 +4643,7 @@
       </c>
       <c r="F9" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H3Y_Quote#0002</v>
+        <v>HKDQM3H3Y_Quote#0001</v>
       </c>
       <c r="G9" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4696,7 +4677,7 @@
       </c>
       <c r="F10" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H4Y_Quote#0002</v>
+        <v>HKDQM3H4Y_Quote#0001</v>
       </c>
       <c r="G10" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4730,7 +4711,7 @@
       </c>
       <c r="F11" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H5Y_Quote#0002</v>
+        <v>HKDQM3H5Y_Quote#0001</v>
       </c>
       <c r="G11" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4755,7 +4736,7 @@
       </c>
       <c r="F12" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H6Y_Quote#0002</v>
+        <v>HKDQM3H6Y_Quote#0001</v>
       </c>
       <c r="G12" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4780,7 +4761,7 @@
       </c>
       <c r="F13" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H7Y_Quote#0002</v>
+        <v>HKDQM3H7Y_Quote#0001</v>
       </c>
       <c r="G13" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4805,7 +4786,7 @@
       </c>
       <c r="F14" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H8Y_Quote#0002</v>
+        <v>HKDQM3H8Y_Quote#0001</v>
       </c>
       <c r="G14" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4830,7 +4811,7 @@
       </c>
       <c r="F15" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H9Y_Quote#0002</v>
+        <v>HKDQM3H9Y_Quote#0001</v>
       </c>
       <c r="G15" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4855,7 +4836,7 @@
       </c>
       <c r="F16" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H10Y_Quote#0002</v>
+        <v>HKDQM3H10Y_Quote#0001</v>
       </c>
       <c r="G16" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4880,7 +4861,7 @@
       </c>
       <c r="F17" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H11Y_Quote#0002</v>
+        <v>HKDQM3H11Y_Quote#0001</v>
       </c>
       <c r="G17" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4905,7 +4886,7 @@
       </c>
       <c r="F18" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H12Y_Quote#0002</v>
+        <v>HKDQM3H12Y_Quote#0001</v>
       </c>
       <c r="G18" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4930,7 +4911,7 @@
       </c>
       <c r="F19" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H13Y_Quote#0002</v>
+        <v>HKDQM3H13Y_Quote#0001</v>
       </c>
       <c r="G19" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -4955,7 +4936,7 @@
       </c>
       <c r="F20" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H14Y_Quote#0002</v>
+        <v>HKDQM3H14Y_Quote#0001</v>
       </c>
       <c r="G20" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -4980,7 +4961,7 @@
       </c>
       <c r="F21" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H15Y_Quote#0002</v>
+        <v>HKDQM3H15Y_Quote#0001</v>
       </c>
       <c r="G21" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -5005,7 +4986,7 @@
       </c>
       <c r="F22" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H16Y_Quote#0002</v>
+        <v>HKDQM3H16Y_Quote#0001</v>
       </c>
       <c r="G22" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -5030,7 +5011,7 @@
       </c>
       <c r="F23" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H17Y_Quote#0002</v>
+        <v>HKDQM3H17Y_Quote#0001</v>
       </c>
       <c r="G23" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -5055,7 +5036,7 @@
       </c>
       <c r="F24" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H18Y_Quote#0002</v>
+        <v>HKDQM3H18Y_Quote#0001</v>
       </c>
       <c r="G24" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -5080,7 +5061,7 @@
       </c>
       <c r="F25" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H19Y_Quote#0002</v>
+        <v>HKDQM3H19Y_Quote#0001</v>
       </c>
       <c r="G25" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -5105,7 +5086,7 @@
       </c>
       <c r="F26" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H20Y_Quote#0002</v>
+        <v>HKDQM3H20Y_Quote#0001</v>
       </c>
       <c r="G26" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -5130,7 +5111,7 @@
       </c>
       <c r="F27" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H21Y_Quote#0002</v>
+        <v>HKDQM3H21Y_Quote#0001</v>
       </c>
       <c r="G27" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -5155,7 +5136,7 @@
       </c>
       <c r="F28" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H22Y_Quote#0002</v>
+        <v>HKDQM3H22Y_Quote#0001</v>
       </c>
       <c r="G28" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -5180,7 +5161,7 @@
       </c>
       <c r="F29" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H23Y_Quote#0002</v>
+        <v>HKDQM3H23Y_Quote#0001</v>
       </c>
       <c r="G29" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -5205,7 +5186,7 @@
       </c>
       <c r="F30" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H24Y_Quote#0002</v>
+        <v>HKDQM3H24Y_Quote#0001</v>
       </c>
       <c r="G30" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -5230,7 +5211,7 @@
       </c>
       <c r="F31" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H25Y_Quote#0002</v>
+        <v>HKDQM3H25Y_Quote#0001</v>
       </c>
       <c r="G31" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -5255,7 +5236,7 @@
       </c>
       <c r="F32" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H26Y_Quote#0002</v>
+        <v>HKDQM3H26Y_Quote#0001</v>
       </c>
       <c r="G32" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -5280,7 +5261,7 @@
       </c>
       <c r="F33" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H27Y_Quote#0002</v>
+        <v>HKDQM3H27Y_Quote#0001</v>
       </c>
       <c r="G33" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -5305,7 +5286,7 @@
       </c>
       <c r="F34" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H28Y_Quote#0002</v>
+        <v>HKDQM3H28Y_Quote#0001</v>
       </c>
       <c r="G34" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -5330,7 +5311,7 @@
       </c>
       <c r="F35" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H29Y_Quote#0002</v>
+        <v>HKDQM3H29Y_Quote#0001</v>
       </c>
       <c r="G35" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -5355,7 +5336,7 @@
       </c>
       <c r="F36" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H30Y_Quote#0002</v>
+        <v>HKDQM3H30Y_Quote#0001</v>
       </c>
       <c r="G36" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -5380,7 +5361,7 @@
       </c>
       <c r="F37" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H35Y_Quote#0002</v>
+        <v>HKDQM3H35Y_Quote#0001</v>
       </c>
       <c r="G37" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -5405,7 +5386,7 @@
       </c>
       <c r="F38" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H40Y_Quote#0002</v>
+        <v>HKDQM3H40Y_Quote#0001</v>
       </c>
       <c r="G38" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -5430,7 +5411,7 @@
       </c>
       <c r="F39" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H50Y_Quote#0002</v>
+        <v>HKDQM3H50Y_Quote#0001</v>
       </c>
       <c r="G39" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -5455,7 +5436,7 @@
       </c>
       <c r="F40" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H60Y_Quote#0002</v>
+        <v>HKDQM3H60Y_Quote#0001</v>
       </c>
       <c r="G40" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -5528,13 +5509,13 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
         <v>HKD_010_SwSB6L.xml</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="33" t="e">
         <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>37</v>
+        <v>#NUM!</v>
       </c>
       <c r="G2" s="34" t="str">
-        <f>_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
+        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_SwSB6L.xml</v>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
@@ -5566,7 +5547,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L1Y_Quote#0002</v>
+        <v>HKDSB6L1Y_Quote#0001</v>
       </c>
       <c r="G3" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -5600,7 +5581,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C4&amp;$D4&amp;$B4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L15M_Quote#0002</v>
+        <v>HKDSB6L15M_Quote#0001</v>
       </c>
       <c r="G4" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -5634,7 +5615,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L18M_Quote#0002</v>
+        <v>HKDSB6L18M_Quote#0001</v>
       </c>
       <c r="G5" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -5668,7 +5649,7 @@
       </c>
       <c r="F6" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L21M_Quote#0002</v>
+        <v>HKDSB6L21M_Quote#0001</v>
       </c>
       <c r="G6" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -5702,7 +5683,7 @@
       </c>
       <c r="F7" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L2Y_Quote#0002</v>
+        <v>HKDSB6L2Y_Quote#0001</v>
       </c>
       <c r="G7" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -5736,7 +5717,7 @@
       </c>
       <c r="F8" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L3Y_Quote#0002</v>
+        <v>HKDSB6L3Y_Quote#0001</v>
       </c>
       <c r="G8" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -5761,7 +5742,7 @@
       </c>
       <c r="F9" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L4Y_Quote#0002</v>
+        <v>HKDSB6L4Y_Quote#0001</v>
       </c>
       <c r="G9" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -5786,7 +5767,7 @@
       </c>
       <c r="F10" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L5Y_Quote#0002</v>
+        <v>HKDSB6L5Y_Quote#0001</v>
       </c>
       <c r="G10" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -5811,7 +5792,7 @@
       </c>
       <c r="F11" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L6Y_Quote#0002</v>
+        <v>HKDSB6L6Y_Quote#0001</v>
       </c>
       <c r="G11" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -5836,7 +5817,7 @@
       </c>
       <c r="F12" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L7Y_Quote#0002</v>
+        <v>HKDSB6L7Y_Quote#0001</v>
       </c>
       <c r="G12" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -5861,7 +5842,7 @@
       </c>
       <c r="F13" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L8Y_Quote#0002</v>
+        <v>HKDSB6L8Y_Quote#0001</v>
       </c>
       <c r="G13" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -5886,7 +5867,7 @@
       </c>
       <c r="F14" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L9Y_Quote#0002</v>
+        <v>HKDSB6L9Y_Quote#0001</v>
       </c>
       <c r="G14" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -5911,7 +5892,7 @@
       </c>
       <c r="F15" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L10Y_Quote#0002</v>
+        <v>HKDSB6L10Y_Quote#0001</v>
       </c>
       <c r="G15" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -5936,7 +5917,7 @@
       </c>
       <c r="F16" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L11Y_Quote#0002</v>
+        <v>HKDSB6L11Y_Quote#0001</v>
       </c>
       <c r="G16" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -5961,7 +5942,7 @@
       </c>
       <c r="F17" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L12Y_Quote#0002</v>
+        <v>HKDSB6L12Y_Quote#0001</v>
       </c>
       <c r="G17" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -5986,7 +5967,7 @@
       </c>
       <c r="F18" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L13Y_Quote#0002</v>
+        <v>HKDSB6L13Y_Quote#0001</v>
       </c>
       <c r="G18" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -6011,7 +5992,7 @@
       </c>
       <c r="F19" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L14Y_Quote#0002</v>
+        <v>HKDSB6L14Y_Quote#0001</v>
       </c>
       <c r="G19" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -6036,7 +6017,7 @@
       </c>
       <c r="F20" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L15Y_Quote#0002</v>
+        <v>HKDSB6L15Y_Quote#0001</v>
       </c>
       <c r="G20" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6061,7 +6042,7 @@
       </c>
       <c r="F21" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L16Y_Quote#0002</v>
+        <v>HKDSB6L16Y_Quote#0001</v>
       </c>
       <c r="G21" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6086,7 +6067,7 @@
       </c>
       <c r="F22" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L17Y_Quote#0002</v>
+        <v>HKDSB6L17Y_Quote#0001</v>
       </c>
       <c r="G22" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6111,7 +6092,7 @@
       </c>
       <c r="F23" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L18Y_Quote#0002</v>
+        <v>HKDSB6L18Y_Quote#0001</v>
       </c>
       <c r="G23" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -6136,7 +6117,7 @@
       </c>
       <c r="F24" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L19Y_Quote#0002</v>
+        <v>HKDSB6L19Y_Quote#0001</v>
       </c>
       <c r="G24" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -6161,7 +6142,7 @@
       </c>
       <c r="F25" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L20Y_Quote#0002</v>
+        <v>HKDSB6L20Y_Quote#0001</v>
       </c>
       <c r="G25" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -6186,7 +6167,7 @@
       </c>
       <c r="F26" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L21Y_Quote#0002</v>
+        <v>HKDSB6L21Y_Quote#0001</v>
       </c>
       <c r="G26" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -6211,7 +6192,7 @@
       </c>
       <c r="F27" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L22Y_Quote#0002</v>
+        <v>HKDSB6L22Y_Quote#0001</v>
       </c>
       <c r="G27" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -6236,7 +6217,7 @@
       </c>
       <c r="F28" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L23Y_Quote#0002</v>
+        <v>HKDSB6L23Y_Quote#0001</v>
       </c>
       <c r="G28" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -6261,7 +6242,7 @@
       </c>
       <c r="F29" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L24Y_Quote#0002</v>
+        <v>HKDSB6L24Y_Quote#0001</v>
       </c>
       <c r="G29" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -6286,7 +6267,7 @@
       </c>
       <c r="F30" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L25Y_Quote#0002</v>
+        <v>HKDSB6L25Y_Quote#0001</v>
       </c>
       <c r="G30" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -6311,7 +6292,7 @@
       </c>
       <c r="F31" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L26Y_Quote#0002</v>
+        <v>HKDSB6L26Y_Quote#0001</v>
       </c>
       <c r="G31" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -6336,7 +6317,7 @@
       </c>
       <c r="F32" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L27Y_Quote#0002</v>
+        <v>HKDSB6L27Y_Quote#0001</v>
       </c>
       <c r="G32" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -6361,7 +6342,7 @@
       </c>
       <c r="F33" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L28Y_Quote#0002</v>
+        <v>HKDSB6L28Y_Quote#0001</v>
       </c>
       <c r="G33" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -6386,7 +6367,7 @@
       </c>
       <c r="F34" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L29Y_Quote#0002</v>
+        <v>HKDSB6L29Y_Quote#0001</v>
       </c>
       <c r="G34" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -6411,7 +6392,7 @@
       </c>
       <c r="F35" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L30Y_Quote#0002</v>
+        <v>HKDSB6L30Y_Quote#0001</v>
       </c>
       <c r="G35" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -6436,7 +6417,7 @@
       </c>
       <c r="F36" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L35Y_Quote#0002</v>
+        <v>HKDSB6L35Y_Quote#0001</v>
       </c>
       <c r="G36" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -6461,7 +6442,7 @@
       </c>
       <c r="F37" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L40Y_Quote#0002</v>
+        <v>HKDSB6L40Y_Quote#0001</v>
       </c>
       <c r="G37" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -6486,7 +6467,7 @@
       </c>
       <c r="F38" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L50Y_Quote#0002</v>
+        <v>HKDSB6L50Y_Quote#0001</v>
       </c>
       <c r="G38" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -6511,7 +6492,7 @@
       </c>
       <c r="F39" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L60Y_Quote#0002</v>
+        <v>HKDSB6L60Y_Quote#0001</v>
       </c>
       <c r="G39" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_SwapQuotes.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="112">
   <si>
     <t>Currency</t>
   </si>
@@ -366,6 +366,9 @@
   </si>
   <si>
     <t>3H</t>
+  </si>
+  <si>
+    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1438,9 +1441,8 @@
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="str">
-        <f>qlSerializationPath(Trigger)</f>
-        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+      <c r="D8" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1586,7 +1588,7 @@
       </c>
       <c r="G2" s="81" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_OIS.xml</v>
+        <v/>
       </c>
       <c r="H2" s="82"/>
     </row>
@@ -3842,7 +3844,7 @@
       </c>
       <c r="G2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_Sw1M.xml</v>
+        <v/>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -4185,7 +4187,7 @@
       </c>
       <c r="G2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_SwIMM.xml</v>
+        <v/>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -4419,7 +4421,7 @@
       </c>
       <c r="G2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_SwQM3H.xml</v>
+        <v/>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
@@ -5515,7 +5517,7 @@
       </c>
       <c r="G2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>ohObjectSave - Invalid parent path : C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\HKD_010_SwSB6L.xml</v>
+        <v/>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_SwapQuotes.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="111">
   <si>
     <t>Currency</t>
   </si>
@@ -366,9 +366,6 @@
   </si>
   <si>
     <t>3H</t>
-  </si>
-  <si>
-    <t>C:\Users\erik\junk\</t>
   </si>
 </sst>
 </file>
@@ -1441,8 +1438,9 @@
       <c r="C8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>111</v>
+      <c r="D8" s="16" t="str">
+        <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
+        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1583,12 +1581,12 @@
         <v>HKD_010_OIS.xml</v>
       </c>
       <c r="F2" s="80" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F93),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="81" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F93),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="81" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="82"/>
     </row>
@@ -3228,9 +3226,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B72&amp;$C72&amp;$D72&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G72" s="85" t="str">
+      <c r="G72" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F72)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H72" s="82"/>
     </row>
@@ -3254,9 +3252,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B73&amp;$C73&amp;$D73&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G73" s="85" t="str">
+      <c r="G73" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F73)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H73" s="82"/>
     </row>
@@ -3280,9 +3278,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B74&amp;$C74&amp;$D74&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G74" s="85" t="str">
+      <c r="G74" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F74)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H74" s="82"/>
     </row>
@@ -3306,9 +3304,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B75&amp;$C75&amp;$D75&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G75" s="85" t="str">
+      <c r="G75" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F75)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H75" s="82"/>
     </row>
@@ -3332,9 +3330,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B76&amp;$C76&amp;$D76&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G76" s="85" t="str">
+      <c r="G76" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F76)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H76" s="82"/>
     </row>
@@ -3358,9 +3356,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B77&amp;$C77&amp;$D77&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G77" s="85" t="str">
+      <c r="G77" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F77)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H77" s="82"/>
     </row>
@@ -3384,9 +3382,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B78&amp;$C78&amp;$D78&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G78" s="85" t="str">
+      <c r="G78" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F78)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H78" s="82"/>
     </row>
@@ -3410,9 +3408,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B79&amp;$C79&amp;$D79&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G79" s="85" t="str">
+      <c r="G79" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F79)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H79" s="82"/>
     </row>
@@ -3436,9 +3434,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B80&amp;$C80&amp;$D80&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G80" s="85" t="str">
+      <c r="G80" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F80)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H80" s="82"/>
     </row>
@@ -3462,9 +3460,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B81&amp;$C81&amp;$D81&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G81" s="85" t="str">
+      <c r="G81" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F81)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H81" s="82"/>
     </row>
@@ -3488,9 +3486,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B82&amp;$C82&amp;$D82&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G82" s="85" t="str">
+      <c r="G82" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F82)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H82" s="82"/>
     </row>
@@ -3514,9 +3512,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B83&amp;$C83&amp;$D83&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G83" s="85" t="str">
+      <c r="G83" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F83)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H83" s="82"/>
     </row>
@@ -3540,9 +3538,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B84&amp;$C84&amp;$D84&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G84" s="85" t="str">
+      <c r="G84" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F84)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H84" s="82"/>
     </row>
@@ -3566,9 +3564,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B85&amp;$C85&amp;$D85&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G85" s="85" t="str">
+      <c r="G85" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F85)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H85" s="82"/>
     </row>
@@ -3592,9 +3590,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B86&amp;$C86&amp;$D86&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G86" s="85" t="str">
+      <c r="G86" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F86)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H86" s="82"/>
     </row>
@@ -3618,9 +3616,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B87&amp;$C87&amp;$D87&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G87" s="85" t="str">
+      <c r="G87" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F87)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H87" s="82"/>
     </row>
@@ -3644,9 +3642,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B88&amp;$C88&amp;$D88&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G88" s="85" t="str">
+      <c r="G88" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F88)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H88" s="82"/>
     </row>
@@ -3670,9 +3668,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B89&amp;$C89&amp;$D89&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G89" s="85" t="str">
+      <c r="G89" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F89)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H89" s="82"/>
     </row>
@@ -3696,9 +3694,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B90&amp;$C90&amp;$D90&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G90" s="85" t="str">
+      <c r="G90" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F90)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H90" s="82"/>
     </row>
@@ -3722,9 +3720,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B91&amp;$C91&amp;$D91&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G91" s="85" t="str">
+      <c r="G91" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F91)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H91" s="82"/>
     </row>
@@ -3748,9 +3746,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B92&amp;$C92&amp;$D92&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G92" s="85" t="str">
+      <c r="G92" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F92)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H92" s="82"/>
     </row>
@@ -3774,9 +3772,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B93&amp;$C93&amp;$D93&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G93" s="85" t="str">
+      <c r="G93" s="85" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F93)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H93" s="82"/>
     </row>
@@ -3839,12 +3837,12 @@
         <v>HKD_010_Sw1M.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -4182,12 +4180,12 @@
         <v>HKD_010_SwIMM.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -4416,12 +4414,12 @@
         <v>HKD_010_SwQM3H.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
@@ -5512,12 +5510,12 @@
         <v>HKD_010_SwSB6L.xml</v>
       </c>
       <c r="F2" s="33" t="e">
-        <f>IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NUM!</v>
-      </c>
-      <c r="G2" s="34" t="str">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="G2" s="34" t="e">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v/>
+        <v>#NAME?</v>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">

--- a/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_SwapQuotes.xlsx
+++ b/QuantLibXL/Data/XLS/020_YieldCurveBootstrap/010_Quotes/HKD_010_SwapQuotes.xlsx
@@ -1371,7 +1371,7 @@
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B1" s="7" t="str">
         <f>_xll.qlxlVersion(TRUE,Trigger)</f>
-        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Dynamic Runtime library - Release Configuration - Nov  4 2013 11:55:45</v>
+        <v>QuantLibXL 1.3.0 - MS VC++ 9.0 - Multithreaded Static Runtime library - Release Configuration - Nov  6 2013 01:01:46</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D8" s="16" t="str">
         <f ca="1">SUBSTITUTE(LEFT(CELL("filename",A1),FIND("[",CELL("filename",A1),1)-1),"\XLS\","\XML\")</f>
-        <v>C:\Users\erik\Documents\repos\quantlib_nando\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
+        <v>C:\Projects\quantlib\QuantLibXL\Data\XML\020_YieldCurveBootstrap\010_Quotes\</v>
       </c>
       <c r="E8" s="15"/>
     </row>
@@ -1580,13 +1580,13 @@
         <f>Currency&amp;"_010_"&amp;"OIS.xml"</f>
         <v>HKD_010_OIS.xml</v>
       </c>
-      <c r="F2" s="80" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F93),SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="81" t="e">
+      <c r="F2" s="80">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(_xll.ohPack(F3:F93),SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>68</v>
+      </c>
+      <c r="G2" s="81" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="82"/>
     </row>
@@ -1605,7 +1605,7 @@
       </c>
       <c r="F3" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B3&amp;$C3&amp;$D3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOISSW_Quote#0001</v>
+        <v>HKDOISSW_Quote#0002</v>
       </c>
       <c r="G3" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="F4" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B4&amp;$C4&amp;$D4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS2W_Quote#0001</v>
+        <v>HKDOIS2W_Quote#0002</v>
       </c>
       <c r="G4" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F5" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B5&amp;$C5&amp;$D5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS3W_Quote#0001</v>
+        <v>HKDOIS3W_Quote#0002</v>
       </c>
       <c r="G5" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="F6" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B6&amp;$C6&amp;$D6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS1M_Quote#0001</v>
+        <v>HKDOIS1M_Quote#0002</v>
       </c>
       <c r="G6" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="F7" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B7&amp;$C7&amp;$D7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS2M_Quote#0001</v>
+        <v>HKDOIS2M_Quote#0002</v>
       </c>
       <c r="G7" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="F8" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B8&amp;$C8&amp;$D8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS3M_Quote#0001</v>
+        <v>HKDOIS3M_Quote#0002</v>
       </c>
       <c r="G8" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -1743,7 +1743,7 @@
       </c>
       <c r="F9" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B9&amp;$C9&amp;$D9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS4M_Quote#0001</v>
+        <v>HKDOIS4M_Quote#0002</v>
       </c>
       <c r="G9" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -1766,7 +1766,7 @@
       </c>
       <c r="F10" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B10&amp;$C10&amp;$D10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS5M_Quote#0001</v>
+        <v>HKDOIS5M_Quote#0002</v>
       </c>
       <c r="G10" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="F11" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B11&amp;$C11&amp;$D11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS6M_Quote#0001</v>
+        <v>HKDOIS6M_Quote#0002</v>
       </c>
       <c r="G11" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -1812,7 +1812,7 @@
       </c>
       <c r="F12" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B12&amp;$C12&amp;$D12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS7M_Quote#0001</v>
+        <v>HKDOIS7M_Quote#0002</v>
       </c>
       <c r="G12" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -1835,7 +1835,7 @@
       </c>
       <c r="F13" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B13&amp;$C13&amp;$D13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS8M_Quote#0001</v>
+        <v>HKDOIS8M_Quote#0002</v>
       </c>
       <c r="G13" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -1858,7 +1858,7 @@
       </c>
       <c r="F14" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B14&amp;$C14&amp;$D14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS9M_Quote#0001</v>
+        <v>HKDOIS9M_Quote#0002</v>
       </c>
       <c r="G14" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F15" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B15&amp;$C15&amp;$D15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS10M_Quote#0001</v>
+        <v>HKDOIS10M_Quote#0002</v>
       </c>
       <c r="G15" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -1904,7 +1904,7 @@
       </c>
       <c r="F16" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B16&amp;$C16&amp;$D16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS11M_Quote#0001</v>
+        <v>HKDOIS11M_Quote#0002</v>
       </c>
       <c r="G16" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -1927,7 +1927,7 @@
       </c>
       <c r="F17" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B17&amp;$C17&amp;$D17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS1Y_Quote#0001</v>
+        <v>HKDOIS1Y_Quote#0002</v>
       </c>
       <c r="G17" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -1950,7 +1950,7 @@
       </c>
       <c r="F18" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B18&amp;$C18&amp;$D18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS13M_Quote#0001</v>
+        <v>HKDOIS13M_Quote#0002</v>
       </c>
       <c r="G18" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -1973,7 +1973,7 @@
       </c>
       <c r="F19" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B19&amp;$C19&amp;$D19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS14M_Quote#0001</v>
+        <v>HKDOIS14M_Quote#0002</v>
       </c>
       <c r="G19" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="F20" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B20&amp;$C20&amp;$D20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS15M_Quote#0001</v>
+        <v>HKDOIS15M_Quote#0002</v>
       </c>
       <c r="G20" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -2019,7 +2019,7 @@
       </c>
       <c r="F21" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B21&amp;$C21&amp;$D21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS16M_Quote#0001</v>
+        <v>HKDOIS16M_Quote#0002</v>
       </c>
       <c r="G21" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="F22" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B22&amp;$C22&amp;$D22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS17M_Quote#0001</v>
+        <v>HKDOIS17M_Quote#0002</v>
       </c>
       <c r="G22" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -2065,7 +2065,7 @@
       </c>
       <c r="F23" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B23&amp;$C23&amp;$D23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS18M_Quote#0001</v>
+        <v>HKDOIS18M_Quote#0002</v>
       </c>
       <c r="G23" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -2088,7 +2088,7 @@
       </c>
       <c r="F24" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B24&amp;$C24&amp;$D24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS19M_Quote#0001</v>
+        <v>HKDOIS19M_Quote#0002</v>
       </c>
       <c r="G24" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -2111,7 +2111,7 @@
       </c>
       <c r="F25" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B25&amp;$C25&amp;$D25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS20M_Quote#0001</v>
+        <v>HKDOIS20M_Quote#0002</v>
       </c>
       <c r="G25" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F26" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B26&amp;$C26&amp;$D26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS21M_Quote#0001</v>
+        <v>HKDOIS21M_Quote#0002</v>
       </c>
       <c r="G26" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -2157,7 +2157,7 @@
       </c>
       <c r="F27" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B27&amp;$C27&amp;$D27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS22M_Quote#0001</v>
+        <v>HKDOIS22M_Quote#0002</v>
       </c>
       <c r="G27" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="F28" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B28&amp;$C28&amp;$D28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS23M_Quote#0001</v>
+        <v>HKDOIS23M_Quote#0002</v>
       </c>
       <c r="G28" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -2203,7 +2203,7 @@
       </c>
       <c r="F29" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B29&amp;$C29&amp;$D29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS2Y_Quote#0001</v>
+        <v>HKDOIS2Y_Quote#0002</v>
       </c>
       <c r="G29" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="F30" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B30&amp;$C30&amp;$D30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS27M_Quote#0001</v>
+        <v>HKDOIS27M_Quote#0002</v>
       </c>
       <c r="G30" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="F31" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B31&amp;$C31&amp;$D31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS30M_Quote#0001</v>
+        <v>HKDOIS30M_Quote#0002</v>
       </c>
       <c r="G31" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="F32" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B32&amp;$C32&amp;$D32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS33M_Quote#0001</v>
+        <v>HKDOIS33M_Quote#0002</v>
       </c>
       <c r="G32" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -2295,7 +2295,7 @@
       </c>
       <c r="F33" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B33&amp;$C33&amp;$D33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS3Y_Quote#0001</v>
+        <v>HKDOIS3Y_Quote#0002</v>
       </c>
       <c r="G33" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -2318,7 +2318,7 @@
       </c>
       <c r="F34" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B34&amp;$C34&amp;$D34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS39M_Quote#0001</v>
+        <v>HKDOIS39M_Quote#0002</v>
       </c>
       <c r="G34" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="F35" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B35&amp;$C35&amp;$D35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS42M_Quote#0001</v>
+        <v>HKDOIS42M_Quote#0002</v>
       </c>
       <c r="G35" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -2364,7 +2364,7 @@
       </c>
       <c r="F36" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B36&amp;$C36&amp;$D36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS45M_Quote#0001</v>
+        <v>HKDOIS45M_Quote#0002</v>
       </c>
       <c r="G36" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -2387,7 +2387,7 @@
       </c>
       <c r="F37" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B37&amp;$C37&amp;$D37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS4Y_Quote#0001</v>
+        <v>HKDOIS4Y_Quote#0002</v>
       </c>
       <c r="G37" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -2410,7 +2410,7 @@
       </c>
       <c r="F38" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B38&amp;$C38&amp;$D38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS51M_Quote#0001</v>
+        <v>HKDOIS51M_Quote#0002</v>
       </c>
       <c r="G38" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -2433,7 +2433,7 @@
       </c>
       <c r="F39" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B39&amp;$C39&amp;$D39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS54M_Quote#0001</v>
+        <v>HKDOIS54M_Quote#0002</v>
       </c>
       <c r="G39" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -2456,7 +2456,7 @@
       </c>
       <c r="F40" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B40&amp;$C40&amp;$D40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS57M_Quote#0001</v>
+        <v>HKDOIS57M_Quote#0002</v>
       </c>
       <c r="G40" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -2479,7 +2479,7 @@
       </c>
       <c r="F41" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B41&amp;$C41&amp;$D41&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS5Y_Quote#0001</v>
+        <v>HKDOIS5Y_Quote#0002</v>
       </c>
       <c r="G41" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F41)</f>
@@ -2502,7 +2502,7 @@
       </c>
       <c r="F42" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B42&amp;$C42&amp;$D42&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS6Y_Quote#0001</v>
+        <v>HKDOIS6Y_Quote#0002</v>
       </c>
       <c r="G42" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F42)</f>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="F43" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B43&amp;$C43&amp;$D43&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS7Y_Quote#0001</v>
+        <v>HKDOIS7Y_Quote#0002</v>
       </c>
       <c r="G43" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F43)</f>
@@ -2548,7 +2548,7 @@
       </c>
       <c r="F44" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B44&amp;$C44&amp;$D44&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS8Y_Quote#0001</v>
+        <v>HKDOIS8Y_Quote#0002</v>
       </c>
       <c r="G44" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F44)</f>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="F45" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B45&amp;$C45&amp;$D45&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS9Y_Quote#0001</v>
+        <v>HKDOIS9Y_Quote#0002</v>
       </c>
       <c r="G45" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F45)</f>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="F46" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B46&amp;$C46&amp;$D46&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS10Y_Quote#0001</v>
+        <v>HKDOIS10Y_Quote#0002</v>
       </c>
       <c r="G46" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F46)</f>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="F47" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B47&amp;$C47&amp;$D47&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS12Y_Quote#0001</v>
+        <v>HKDOIS12Y_Quote#0002</v>
       </c>
       <c r="G47" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F47)</f>
@@ -2640,7 +2640,7 @@
       </c>
       <c r="F48" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B48&amp;$C48&amp;$D48&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS15Y_Quote#0001</v>
+        <v>HKDOIS15Y_Quote#0002</v>
       </c>
       <c r="G48" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F48)</f>
@@ -2663,7 +2663,7 @@
       </c>
       <c r="F49" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B49&amp;$C49&amp;$D49&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS20Y_Quote#0001</v>
+        <v>HKDOIS20Y_Quote#0002</v>
       </c>
       <c r="G49" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F49)</f>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="F50" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B50&amp;$C50&amp;$D50&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS25Y_Quote#0001</v>
+        <v>HKDOIS25Y_Quote#0002</v>
       </c>
       <c r="G50" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F50)</f>
@@ -2709,7 +2709,7 @@
       </c>
       <c r="F51" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B51&amp;$C51&amp;$D51&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS27Y_Quote#0001</v>
+        <v>HKDOIS27Y_Quote#0002</v>
       </c>
       <c r="G51" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F51)</f>
@@ -2732,7 +2732,7 @@
       </c>
       <c r="F52" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B52&amp;$C52&amp;$D52&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS30Y_Quote#0001</v>
+        <v>HKDOIS30Y_Quote#0002</v>
       </c>
       <c r="G52" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F52)</f>
@@ -2755,7 +2755,7 @@
       </c>
       <c r="F53" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B53&amp;$C53&amp;$D53&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS35Y_Quote#0001</v>
+        <v>HKDOIS35Y_Quote#0002</v>
       </c>
       <c r="G53" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F53)</f>
@@ -2778,7 +2778,7 @@
       </c>
       <c r="F54" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B54&amp;$C54&amp;$D54&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS40Y_Quote#0001</v>
+        <v>HKDOIS40Y_Quote#0002</v>
       </c>
       <c r="G54" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F54)</f>
@@ -2801,7 +2801,7 @@
       </c>
       <c r="F55" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B55&amp;$C55&amp;$D55&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS45Y_Quote#0001</v>
+        <v>HKDOIS45Y_Quote#0002</v>
       </c>
       <c r="G55" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F55)</f>
@@ -2824,7 +2824,7 @@
       </c>
       <c r="F56" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B56&amp;$C56&amp;$D56&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDOIS50Y_Quote#0001</v>
+        <v>HKDOIS50Y_Quote#0002</v>
       </c>
       <c r="G56" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F56)</f>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F58" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B58&amp;$C58&amp;$D58&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISNOV12_Quote#0001</v>
+        <v>HKDFEDOISNOV12_Quote#0002</v>
       </c>
       <c r="G58" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F58)</f>
@@ -2886,7 +2886,7 @@
       </c>
       <c r="F59" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B59&amp;$C59&amp;$D59&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISDEC12_Quote#0001</v>
+        <v>HKDFEDOISDEC12_Quote#0002</v>
       </c>
       <c r="G59" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F59)</f>
@@ -2912,7 +2912,7 @@
       </c>
       <c r="F60" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B60&amp;$C60&amp;$D60&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJAN13_Quote#0001</v>
+        <v>HKDFEDOISJAN13_Quote#0002</v>
       </c>
       <c r="G60" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F60)</f>
@@ -2938,7 +2938,7 @@
       </c>
       <c r="F61" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B61&amp;$C61&amp;$D61&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISFEB13_Quote#0001</v>
+        <v>HKDFEDOISFEB13_Quote#0002</v>
       </c>
       <c r="G61" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F61)</f>
@@ -2964,7 +2964,7 @@
       </c>
       <c r="F62" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B62&amp;$C62&amp;$D62&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISMAR13_Quote#0001</v>
+        <v>HKDFEDOISMAR13_Quote#0002</v>
       </c>
       <c r="G62" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F62)</f>
@@ -2990,7 +2990,7 @@
       </c>
       <c r="F63" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B63&amp;$C63&amp;$D63&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISAPR13_Quote#0001</v>
+        <v>HKDFEDOISAPR13_Quote#0002</v>
       </c>
       <c r="G63" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F63)</f>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="F64" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B64&amp;$C64&amp;$D64&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISMAY13_Quote#0001</v>
+        <v>HKDFEDOISMAY13_Quote#0002</v>
       </c>
       <c r="G64" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F64)</f>
@@ -3042,7 +3042,7 @@
       </c>
       <c r="F65" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B65&amp;$C65&amp;$D65&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJUN13_Quote#0001</v>
+        <v>HKDFEDOISJUN13_Quote#0002</v>
       </c>
       <c r="G65" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F65)</f>
@@ -3068,7 +3068,7 @@
       </c>
       <c r="F66" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B66&amp;$C66&amp;$D66&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISJUL13_Quote#0001</v>
+        <v>HKDFEDOISJUL13_Quote#0002</v>
       </c>
       <c r="G66" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F66)</f>
@@ -3094,7 +3094,7 @@
       </c>
       <c r="F67" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B67&amp;$C67&amp;$D67&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISAUG13_Quote#0001</v>
+        <v>HKDFEDOISAUG13_Quote#0002</v>
       </c>
       <c r="G67" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F67)</f>
@@ -3120,7 +3120,7 @@
       </c>
       <c r="F68" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B68&amp;$C68&amp;$D68&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISSEP13_Quote#0001</v>
+        <v>HKDFEDOISSEP13_Quote#0002</v>
       </c>
       <c r="G68" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F68)</f>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="F69" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B69&amp;$C69&amp;$D69&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISOCT13_Quote#0001</v>
+        <v>HKDFEDOISOCT13_Quote#0002</v>
       </c>
       <c r="G69" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F69)</f>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="F70" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B70&amp;$C70&amp;$D70&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISNOV13_Quote#0001</v>
+        <v>HKDFEDOISNOV13_Quote#0002</v>
       </c>
       <c r="G70" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F70)</f>
@@ -3198,7 +3198,7 @@
       </c>
       <c r="F71" s="84" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$B71&amp;$C71&amp;$D71&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDFEDOISDEC13_Quote#0001</v>
+        <v>HKDFEDOISDEC13_Quote#0002</v>
       </c>
       <c r="G71" s="85" t="str">
         <f>_xll.ohRangeRetrieveError(F71)</f>
@@ -3226,9 +3226,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B72&amp;$C72&amp;$D72&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G72" s="85" t="e">
+      <c r="G72" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F72)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H72" s="82"/>
     </row>
@@ -3252,9 +3252,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B73&amp;$C73&amp;$D73&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G73" s="85" t="e">
+      <c r="G73" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F73)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H73" s="82"/>
     </row>
@@ -3278,9 +3278,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B74&amp;$C74&amp;$D74&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G74" s="85" t="e">
+      <c r="G74" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F74)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H74" s="82"/>
     </row>
@@ -3304,9 +3304,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B75&amp;$C75&amp;$D75&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G75" s="85" t="e">
+      <c r="G75" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F75)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H75" s="82"/>
     </row>
@@ -3330,9 +3330,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B76&amp;$C76&amp;$D76&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G76" s="85" t="e">
+      <c r="G76" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F76)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H76" s="82"/>
     </row>
@@ -3356,9 +3356,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B77&amp;$C77&amp;$D77&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G77" s="85" t="e">
+      <c r="G77" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F77)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H77" s="82"/>
     </row>
@@ -3382,9 +3382,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B78&amp;$C78&amp;$D78&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G78" s="85" t="e">
+      <c r="G78" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F78)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H78" s="82"/>
     </row>
@@ -3408,9 +3408,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B79&amp;$C79&amp;$D79&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G79" s="85" t="e">
+      <c r="G79" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F79)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H79" s="82"/>
     </row>
@@ -3434,9 +3434,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B80&amp;$C80&amp;$D80&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G80" s="85" t="e">
+      <c r="G80" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F80)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H80" s="82"/>
     </row>
@@ -3460,9 +3460,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B81&amp;$C81&amp;$D81&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G81" s="85" t="e">
+      <c r="G81" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F81)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H81" s="82"/>
     </row>
@@ -3486,9 +3486,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B82&amp;$C82&amp;$D82&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G82" s="85" t="e">
+      <c r="G82" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F82)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H82" s="82"/>
     </row>
@@ -3512,9 +3512,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B83&amp;$C83&amp;$D83&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G83" s="85" t="e">
+      <c r="G83" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F83)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H83" s="82"/>
     </row>
@@ -3538,9 +3538,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B84&amp;$C84&amp;$D84&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G84" s="85" t="e">
+      <c r="G84" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F84)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H84" s="82"/>
     </row>
@@ -3564,9 +3564,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B85&amp;$C85&amp;$D85&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G85" s="85" t="e">
+      <c r="G85" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F85)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H85" s="82"/>
     </row>
@@ -3590,9 +3590,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B86&amp;$C86&amp;$D86&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G86" s="85" t="e">
+      <c r="G86" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F86)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H86" s="82"/>
     </row>
@@ -3616,9 +3616,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B87&amp;$C87&amp;$D87&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G87" s="85" t="e">
+      <c r="G87" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F87)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H87" s="82"/>
     </row>
@@ -3642,9 +3642,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B88&amp;$C88&amp;$D88&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G88" s="85" t="e">
+      <c r="G88" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F88)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H88" s="82"/>
     </row>
@@ -3668,9 +3668,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B89&amp;$C89&amp;$D89&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G89" s="85" t="e">
+      <c r="G89" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F89)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H89" s="82"/>
     </row>
@@ -3694,9 +3694,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B90&amp;$C90&amp;$D90&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G90" s="85" t="e">
+      <c r="G90" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F90)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H90" s="82"/>
     </row>
@@ -3720,9 +3720,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B91&amp;$C91&amp;$D91&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G91" s="85" t="e">
+      <c r="G91" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F91)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H91" s="82"/>
     </row>
@@ -3746,9 +3746,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B92&amp;$C92&amp;$D92&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G92" s="85" t="e">
+      <c r="G92" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F92)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H92" s="82"/>
     </row>
@@ -3772,9 +3772,9 @@
         <f>_xll.qlSimpleQuote(Currency&amp;$B93&amp;$C93&amp;$D93&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G93" s="85" t="e">
+      <c r="G93" s="85" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F93)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H93" s="82"/>
     </row>
@@ -3836,13 +3836,13 @@
         <f>Currency&amp;"_010_Sw"&amp;"1M.xml"</f>
         <v>HKD_010_Sw1M.xml</v>
       </c>
-      <c r="F2" s="33" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="34" t="e">
+      <c r="F2" s="33">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F13,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>11</v>
+      </c>
+      <c r="G2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H2M_Quote#0001</v>
+        <v>HKDAM1H2M_Quote#0002</v>
       </c>
       <c r="G3" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -3888,7 +3888,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C4&amp;$D4&amp;$B4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H3M_Quote#0001</v>
+        <v>HKDAM1H3M_Quote#0002</v>
       </c>
       <c r="G4" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -3913,7 +3913,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H4M_Quote#0001</v>
+        <v>HKDAM1H4M_Quote#0002</v>
       </c>
       <c r="G5" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -3938,7 +3938,7 @@
       </c>
       <c r="F6" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H5M_Quote#0001</v>
+        <v>HKDAM1H5M_Quote#0002</v>
       </c>
       <c r="G6" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="F7" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H6M_Quote#0001</v>
+        <v>HKDAM1H6M_Quote#0002</v>
       </c>
       <c r="G7" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="F8" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H7M_Quote#0001</v>
+        <v>HKDAM1H7M_Quote#0002</v>
       </c>
       <c r="G8" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="F9" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H8M_Quote#0001</v>
+        <v>HKDAM1H8M_Quote#0002</v>
       </c>
       <c r="G9" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="F10" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H9M_Quote#0001</v>
+        <v>HKDAM1H9M_Quote#0002</v>
       </c>
       <c r="G10" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4063,7 +4063,7 @@
       </c>
       <c r="F11" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H10M_Quote#0001</v>
+        <v>HKDAM1H10M_Quote#0002</v>
       </c>
       <c r="G11" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4088,7 +4088,7 @@
       </c>
       <c r="F12" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H11M_Quote#0001</v>
+        <v>HKDAM1H11M_Quote#0002</v>
       </c>
       <c r="G12" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4113,7 +4113,7 @@
       </c>
       <c r="F13" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDAM1H1Y_Quote#0001</v>
+        <v>HKDAM1H1Y_Quote#0002</v>
       </c>
       <c r="G13" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4179,13 +4179,13 @@
         <f>Currency&amp;"_010_Sw"&amp;"IMM.xml"</f>
         <v>HKD_010_SwIMM.xml</v>
       </c>
-      <c r="F2" s="33" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="34" t="e">
+      <c r="F2" s="33">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F9,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>7</v>
+      </c>
+      <c r="G2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="41"/>
     </row>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1S12_Quote#0001</v>
+        <v>HKD1S12_Quote#0002</v>
       </c>
       <c r="G3" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -4227,7 +4227,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C4&amp;$D4&amp;$B4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2S12_Quote#0001</v>
+        <v>HKD2S12_Quote#0002</v>
       </c>
       <c r="G4" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -4250,7 +4250,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD3S12_Quote#0001</v>
+        <v>HKD3S12_Quote#0002</v>
       </c>
       <c r="G5" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -4273,7 +4273,7 @@
       </c>
       <c r="F6" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD4S12_Quote#0001</v>
+        <v>HKD4S12_Quote#0002</v>
       </c>
       <c r="G6" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="F7" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1S24_Quote#0001</v>
+        <v>HKD1S24_Quote#0002</v>
       </c>
       <c r="G7" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4319,7 +4319,7 @@
       </c>
       <c r="F8" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD2S24_Quote#0001</v>
+        <v>HKD2S24_Quote#0002</v>
       </c>
       <c r="G8" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4342,7 +4342,7 @@
       </c>
       <c r="F9" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKD1S36_Quote#0001</v>
+        <v>HKD1S36_Quote#0002</v>
       </c>
       <c r="G9" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4413,13 +4413,13 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
         <v>HKD_010_SwQM3H.xml</v>
       </c>
-      <c r="F2" s="33" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="34" t="e">
+      <c r="F2" s="33">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F40,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>38</v>
+      </c>
+      <c r="G2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H6M_Quote#0001</v>
+        <v>HKDQM3H6M_Quote#0002</v>
       </c>
       <c r="G3" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C4&amp;$D4&amp;$B4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H1Y_Quote#0001</v>
+        <v>HKDQM3H1Y_Quote#0002</v>
       </c>
       <c r="G4" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -4519,7 +4519,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H15M_Quote#0001</v>
+        <v>HKDQM3H15M_Quote#0002</v>
       </c>
       <c r="G5" s="26" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -4553,7 +4553,7 @@
       </c>
       <c r="F6" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H18M_Quote#0001</v>
+        <v>HKDQM3H18M_Quote#0002</v>
       </c>
       <c r="G6" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -4581,7 +4581,7 @@
       </c>
       <c r="F7" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H21M_Quote#0001</v>
+        <v>HKDQM3H21M_Quote#0002</v>
       </c>
       <c r="G7" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="F8" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H2Y_Quote#0001</v>
+        <v>HKDQM3H2Y_Quote#0002</v>
       </c>
       <c r="G8" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -4643,7 +4643,7 @@
       </c>
       <c r="F9" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H3Y_Quote#0001</v>
+        <v>HKDQM3H3Y_Quote#0002</v>
       </c>
       <c r="G9" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -4677,7 +4677,7 @@
       </c>
       <c r="F10" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H4Y_Quote#0001</v>
+        <v>HKDQM3H4Y_Quote#0002</v>
       </c>
       <c r="G10" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -4711,7 +4711,7 @@
       </c>
       <c r="F11" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H5Y_Quote#0001</v>
+        <v>HKDQM3H5Y_Quote#0002</v>
       </c>
       <c r="G11" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -4736,7 +4736,7 @@
       </c>
       <c r="F12" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H6Y_Quote#0001</v>
+        <v>HKDQM3H6Y_Quote#0002</v>
       </c>
       <c r="G12" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="F13" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H7Y_Quote#0001</v>
+        <v>HKDQM3H7Y_Quote#0002</v>
       </c>
       <c r="G13" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -4786,7 +4786,7 @@
       </c>
       <c r="F14" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H8Y_Quote#0001</v>
+        <v>HKDQM3H8Y_Quote#0002</v>
       </c>
       <c r="G14" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -4811,7 +4811,7 @@
       </c>
       <c r="F15" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H9Y_Quote#0001</v>
+        <v>HKDQM3H9Y_Quote#0002</v>
       </c>
       <c r="G15" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -4836,7 +4836,7 @@
       </c>
       <c r="F16" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H10Y_Quote#0001</v>
+        <v>HKDQM3H10Y_Quote#0002</v>
       </c>
       <c r="G16" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -4861,7 +4861,7 @@
       </c>
       <c r="F17" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H11Y_Quote#0001</v>
+        <v>HKDQM3H11Y_Quote#0002</v>
       </c>
       <c r="G17" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -4886,7 +4886,7 @@
       </c>
       <c r="F18" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H12Y_Quote#0001</v>
+        <v>HKDQM3H12Y_Quote#0002</v>
       </c>
       <c r="G18" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -4911,7 +4911,7 @@
       </c>
       <c r="F19" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H13Y_Quote#0001</v>
+        <v>HKDQM3H13Y_Quote#0002</v>
       </c>
       <c r="G19" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -4936,7 +4936,7 @@
       </c>
       <c r="F20" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H14Y_Quote#0001</v>
+        <v>HKDQM3H14Y_Quote#0002</v>
       </c>
       <c r="G20" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="F21" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H15Y_Quote#0001</v>
+        <v>HKDQM3H15Y_Quote#0002</v>
       </c>
       <c r="G21" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -4986,7 +4986,7 @@
       </c>
       <c r="F22" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H16Y_Quote#0001</v>
+        <v>HKDQM3H16Y_Quote#0002</v>
       </c>
       <c r="G22" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -5011,7 +5011,7 @@
       </c>
       <c r="F23" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H17Y_Quote#0001</v>
+        <v>HKDQM3H17Y_Quote#0002</v>
       </c>
       <c r="G23" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -5036,7 +5036,7 @@
       </c>
       <c r="F24" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H18Y_Quote#0001</v>
+        <v>HKDQM3H18Y_Quote#0002</v>
       </c>
       <c r="G24" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -5061,7 +5061,7 @@
       </c>
       <c r="F25" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H19Y_Quote#0001</v>
+        <v>HKDQM3H19Y_Quote#0002</v>
       </c>
       <c r="G25" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="F26" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H20Y_Quote#0001</v>
+        <v>HKDQM3H20Y_Quote#0002</v>
       </c>
       <c r="G26" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -5111,7 +5111,7 @@
       </c>
       <c r="F27" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H21Y_Quote#0001</v>
+        <v>HKDQM3H21Y_Quote#0002</v>
       </c>
       <c r="G27" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -5136,7 +5136,7 @@
       </c>
       <c r="F28" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H22Y_Quote#0001</v>
+        <v>HKDQM3H22Y_Quote#0002</v>
       </c>
       <c r="G28" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="F29" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H23Y_Quote#0001</v>
+        <v>HKDQM3H23Y_Quote#0002</v>
       </c>
       <c r="G29" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -5186,7 +5186,7 @@
       </c>
       <c r="F30" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H24Y_Quote#0001</v>
+        <v>HKDQM3H24Y_Quote#0002</v>
       </c>
       <c r="G30" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -5211,7 +5211,7 @@
       </c>
       <c r="F31" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H25Y_Quote#0001</v>
+        <v>HKDQM3H25Y_Quote#0002</v>
       </c>
       <c r="G31" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -5236,7 +5236,7 @@
       </c>
       <c r="F32" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H26Y_Quote#0001</v>
+        <v>HKDQM3H26Y_Quote#0002</v>
       </c>
       <c r="G32" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -5261,7 +5261,7 @@
       </c>
       <c r="F33" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H27Y_Quote#0001</v>
+        <v>HKDQM3H27Y_Quote#0002</v>
       </c>
       <c r="G33" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -5286,7 +5286,7 @@
       </c>
       <c r="F34" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H28Y_Quote#0001</v>
+        <v>HKDQM3H28Y_Quote#0002</v>
       </c>
       <c r="G34" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -5311,7 +5311,7 @@
       </c>
       <c r="F35" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H29Y_Quote#0001</v>
+        <v>HKDQM3H29Y_Quote#0002</v>
       </c>
       <c r="G35" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -5336,7 +5336,7 @@
       </c>
       <c r="F36" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H30Y_Quote#0001</v>
+        <v>HKDQM3H30Y_Quote#0002</v>
       </c>
       <c r="G36" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -5361,7 +5361,7 @@
       </c>
       <c r="F37" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H35Y_Quote#0001</v>
+        <v>HKDQM3H35Y_Quote#0002</v>
       </c>
       <c r="G37" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -5386,7 +5386,7 @@
       </c>
       <c r="F38" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H40Y_Quote#0001</v>
+        <v>HKDQM3H40Y_Quote#0002</v>
       </c>
       <c r="G38" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -5411,7 +5411,7 @@
       </c>
       <c r="F39" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H50Y_Quote#0001</v>
+        <v>HKDQM3H50Y_Quote#0002</v>
       </c>
       <c r="G39" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
@@ -5436,7 +5436,7 @@
       </c>
       <c r="F40" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C40&amp;$D40&amp;$B40&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDQM3H60Y_Quote#0001</v>
+        <v>HKDQM3H60Y_Quote#0002</v>
       </c>
       <c r="G40" s="28" t="str">
         <f>_xll.ohRangeRetrieveError(F40)</f>
@@ -5509,13 +5509,13 @@
         <f>Currency&amp;"_010_Sw"&amp;$C$3&amp;$D$3&amp;".xml"</f>
         <v>HKD_010_SwSB6L.xml</v>
       </c>
-      <c r="F2" s="33" t="e">
-        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,Serialize),"---")</f>
-        <v>#NAME?</v>
-      </c>
-      <c r="G2" s="34" t="e">
+      <c r="F2" s="33">
+        <f ca="1">IF(Serialize,_xll.ohObjectSave(F3:F39,SerializationPath&amp;E2,FileOverwrite,,Serialize),"---")</f>
+        <v>37</v>
+      </c>
+      <c r="G2" s="34" t="str">
         <f ca="1">_xll.ohRangeRetrieveError(F2)</f>
-        <v>#NAME?</v>
+        <v/>
       </c>
       <c r="H2" s="41"/>
       <c r="J2" s="59" t="s">
@@ -5547,7 +5547,7 @@
       </c>
       <c r="F3" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C3&amp;$D3&amp;$B3&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L1Y_Quote#0001</v>
+        <v>HKDSB6L1Y_Quote#0002</v>
       </c>
       <c r="G3" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F3)</f>
@@ -5581,7 +5581,7 @@
       </c>
       <c r="F4" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C4&amp;$D4&amp;$B4&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L15M_Quote#0001</v>
+        <v>HKDSB6L15M_Quote#0002</v>
       </c>
       <c r="G4" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F4)</f>
@@ -5615,7 +5615,7 @@
       </c>
       <c r="F5" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C5&amp;$D5&amp;$B5&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L18M_Quote#0001</v>
+        <v>HKDSB6L18M_Quote#0002</v>
       </c>
       <c r="G5" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F5)</f>
@@ -5649,7 +5649,7 @@
       </c>
       <c r="F6" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C6&amp;$D6&amp;$B6&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L21M_Quote#0001</v>
+        <v>HKDSB6L21M_Quote#0002</v>
       </c>
       <c r="G6" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F6)</f>
@@ -5683,7 +5683,7 @@
       </c>
       <c r="F7" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C7&amp;$D7&amp;$B7&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L2Y_Quote#0001</v>
+        <v>HKDSB6L2Y_Quote#0002</v>
       </c>
       <c r="G7" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F7)</f>
@@ -5717,7 +5717,7 @@
       </c>
       <c r="F8" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C8&amp;$D8&amp;$B8&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L3Y_Quote#0001</v>
+        <v>HKDSB6L3Y_Quote#0002</v>
       </c>
       <c r="G8" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F8)</f>
@@ -5742,7 +5742,7 @@
       </c>
       <c r="F9" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C9&amp;$D9&amp;$B9&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L4Y_Quote#0001</v>
+        <v>HKDSB6L4Y_Quote#0002</v>
       </c>
       <c r="G9" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F9)</f>
@@ -5767,7 +5767,7 @@
       </c>
       <c r="F10" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C10&amp;$D10&amp;$B10&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L5Y_Quote#0001</v>
+        <v>HKDSB6L5Y_Quote#0002</v>
       </c>
       <c r="G10" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F10)</f>
@@ -5792,7 +5792,7 @@
       </c>
       <c r="F11" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C11&amp;$D11&amp;$B11&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L6Y_Quote#0001</v>
+        <v>HKDSB6L6Y_Quote#0002</v>
       </c>
       <c r="G11" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F11)</f>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F12" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C12&amp;$D12&amp;$B12&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L7Y_Quote#0001</v>
+        <v>HKDSB6L7Y_Quote#0002</v>
       </c>
       <c r="G12" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F12)</f>
@@ -5842,7 +5842,7 @@
       </c>
       <c r="F13" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C13&amp;$D13&amp;$B13&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L8Y_Quote#0001</v>
+        <v>HKDSB6L8Y_Quote#0002</v>
       </c>
       <c r="G13" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F13)</f>
@@ -5867,7 +5867,7 @@
       </c>
       <c r="F14" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C14&amp;$D14&amp;$B14&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L9Y_Quote#0001</v>
+        <v>HKDSB6L9Y_Quote#0002</v>
       </c>
       <c r="G14" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F14)</f>
@@ -5892,7 +5892,7 @@
       </c>
       <c r="F15" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C15&amp;$D15&amp;$B15&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L10Y_Quote#0001</v>
+        <v>HKDSB6L10Y_Quote#0002</v>
       </c>
       <c r="G15" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F15)</f>
@@ -5917,7 +5917,7 @@
       </c>
       <c r="F16" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C16&amp;$D16&amp;$B16&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L11Y_Quote#0001</v>
+        <v>HKDSB6L11Y_Quote#0002</v>
       </c>
       <c r="G16" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F16)</f>
@@ -5942,7 +5942,7 @@
       </c>
       <c r="F17" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C17&amp;$D17&amp;$B17&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L12Y_Quote#0001</v>
+        <v>HKDSB6L12Y_Quote#0002</v>
       </c>
       <c r="G17" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F17)</f>
@@ -5967,7 +5967,7 @@
       </c>
       <c r="F18" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C18&amp;$D18&amp;$B18&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L13Y_Quote#0001</v>
+        <v>HKDSB6L13Y_Quote#0002</v>
       </c>
       <c r="G18" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F18)</f>
@@ -5992,7 +5992,7 @@
       </c>
       <c r="F19" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C19&amp;$D19&amp;$B19&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L14Y_Quote#0001</v>
+        <v>HKDSB6L14Y_Quote#0002</v>
       </c>
       <c r="G19" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F19)</f>
@@ -6017,7 +6017,7 @@
       </c>
       <c r="F20" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C20&amp;$D20&amp;$B20&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L15Y_Quote#0001</v>
+        <v>HKDSB6L15Y_Quote#0002</v>
       </c>
       <c r="G20" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F20)</f>
@@ -6042,7 +6042,7 @@
       </c>
       <c r="F21" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C21&amp;$D21&amp;$B21&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L16Y_Quote#0001</v>
+        <v>HKDSB6L16Y_Quote#0002</v>
       </c>
       <c r="G21" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F21)</f>
@@ -6067,7 +6067,7 @@
       </c>
       <c r="F22" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C22&amp;$D22&amp;$B22&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L17Y_Quote#0001</v>
+        <v>HKDSB6L17Y_Quote#0002</v>
       </c>
       <c r="G22" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F22)</f>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="F23" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C23&amp;$D23&amp;$B23&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L18Y_Quote#0001</v>
+        <v>HKDSB6L18Y_Quote#0002</v>
       </c>
       <c r="G23" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F23)</f>
@@ -6117,7 +6117,7 @@
       </c>
       <c r="F24" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C24&amp;$D24&amp;$B24&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L19Y_Quote#0001</v>
+        <v>HKDSB6L19Y_Quote#0002</v>
       </c>
       <c r="G24" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F24)</f>
@@ -6142,7 +6142,7 @@
       </c>
       <c r="F25" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C25&amp;$D25&amp;$B25&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L20Y_Quote#0001</v>
+        <v>HKDSB6L20Y_Quote#0002</v>
       </c>
       <c r="G25" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F25)</f>
@@ -6167,7 +6167,7 @@
       </c>
       <c r="F26" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C26&amp;$D26&amp;$B26&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L21Y_Quote#0001</v>
+        <v>HKDSB6L21Y_Quote#0002</v>
       </c>
       <c r="G26" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F26)</f>
@@ -6192,7 +6192,7 @@
       </c>
       <c r="F27" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C27&amp;$D27&amp;$B27&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L22Y_Quote#0001</v>
+        <v>HKDSB6L22Y_Quote#0002</v>
       </c>
       <c r="G27" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F27)</f>
@@ -6217,7 +6217,7 @@
       </c>
       <c r="F28" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C28&amp;$D28&amp;$B28&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L23Y_Quote#0001</v>
+        <v>HKDSB6L23Y_Quote#0002</v>
       </c>
       <c r="G28" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F28)</f>
@@ -6242,7 +6242,7 @@
       </c>
       <c r="F29" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C29&amp;$D29&amp;$B29&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L24Y_Quote#0001</v>
+        <v>HKDSB6L24Y_Quote#0002</v>
       </c>
       <c r="G29" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F29)</f>
@@ -6267,7 +6267,7 @@
       </c>
       <c r="F30" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C30&amp;$D30&amp;$B30&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L25Y_Quote#0001</v>
+        <v>HKDSB6L25Y_Quote#0002</v>
       </c>
       <c r="G30" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F30)</f>
@@ -6292,7 +6292,7 @@
       </c>
       <c r="F31" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C31&amp;$D31&amp;$B31&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L26Y_Quote#0001</v>
+        <v>HKDSB6L26Y_Quote#0002</v>
       </c>
       <c r="G31" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F31)</f>
@@ -6317,7 +6317,7 @@
       </c>
       <c r="F32" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C32&amp;$D32&amp;$B32&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L27Y_Quote#0001</v>
+        <v>HKDSB6L27Y_Quote#0002</v>
       </c>
       <c r="G32" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F32)</f>
@@ -6342,7 +6342,7 @@
       </c>
       <c r="F33" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C33&amp;$D33&amp;$B33&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L28Y_Quote#0001</v>
+        <v>HKDSB6L28Y_Quote#0002</v>
       </c>
       <c r="G33" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F33)</f>
@@ -6367,7 +6367,7 @@
       </c>
       <c r="F34" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C34&amp;$D34&amp;$B34&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L29Y_Quote#0001</v>
+        <v>HKDSB6L29Y_Quote#0002</v>
       </c>
       <c r="G34" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F34)</f>
@@ -6392,7 +6392,7 @@
       </c>
       <c r="F35" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C35&amp;$D35&amp;$B35&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L30Y_Quote#0001</v>
+        <v>HKDSB6L30Y_Quote#0002</v>
       </c>
       <c r="G35" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F35)</f>
@@ -6417,7 +6417,7 @@
       </c>
       <c r="F36" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C36&amp;$D36&amp;$B36&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L35Y_Quote#0001</v>
+        <v>HKDSB6L35Y_Quote#0002</v>
       </c>
       <c r="G36" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F36)</f>
@@ -6442,7 +6442,7 @@
       </c>
       <c r="F37" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C37&amp;$D37&amp;$B37&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L40Y_Quote#0001</v>
+        <v>HKDSB6L40Y_Quote#0002</v>
       </c>
       <c r="G37" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F37)</f>
@@ -6467,7 +6467,7 @@
       </c>
       <c r="F38" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C38&amp;$D38&amp;$B38&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L50Y_Quote#0001</v>
+        <v>HKDSB6L50Y_Quote#0002</v>
       </c>
       <c r="G38" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F38)</f>
@@ -6492,7 +6492,7 @@
       </c>
       <c r="F39" s="5" t="str">
         <f>_xll.qlSimpleQuote(Currency&amp;$C39&amp;$D39&amp;$B39&amp;QuoteSuffix,,RateTickValue,Permanent,Trigger,ObjectOverwrite)</f>
-        <v>HKDSB6L60Y_Quote#0001</v>
+        <v>HKDSB6L60Y_Quote#0002</v>
       </c>
       <c r="G39" s="34" t="str">
         <f>_xll.ohRangeRetrieveError(F39)</f>
